--- a/template/de/run_gsea/examples/nci60/table/GSEA.xlsx
+++ b/template/de/run_gsea/examples/nci60/table/GSEA.xlsx
@@ -257,18 +257,18 @@
     <t>HSA00970_AMINOACYL_TRNA_BIOSYNTHESIS</t>
   </si>
   <si>
+    <t>HSA00670_ONE_CARBON_POOL_BY_FOLATE</t>
+  </si>
+  <si>
     <t>HSA00270_CYSTEINE_AND_METHIONINE_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00670_ONE_CARBON_POOL_BY_FOLATE</t>
+    <t>HSA01200_CARBON_METABOLISM</t>
   </si>
   <si>
     <t>HSA00640_PROPANOATE_METABOLISM</t>
   </si>
   <si>
-    <t>HSA01200_CARBON_METABOLISM</t>
-  </si>
-  <si>
     <t>HSA01130_BIOSYNTHESIS_OF_ANTIBIOTICS</t>
   </si>
   <si>
@@ -281,21 +281,21 @@
     <t>HSA01230_BIOSYNTHESIS_OF_AMINO_ACIDS</t>
   </si>
   <si>
+    <t>HSA00650_BUTANOATE_METABOLISM</t>
+  </si>
+  <si>
     <t>HSA00250_ALANINE_ASPARTATE_AND_GLUTAMATE_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00650_BUTANOATE_METABOLISM</t>
-  </si>
-  <si>
     <t>HSA00280_VALINE_LEUCINE_AND_ISOLEUCINE_DEGRADATION</t>
   </si>
   <si>
+    <t>HSA00512_MUCIN_TYPE_O_GLYCAN_BIOSYNTHESIS</t>
+  </si>
+  <si>
     <t>HSA00562_INOSITOL_PHOSPHATE_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00512_MUCIN_TYPE_O_GLYCAN_BIOSYNTHESIS</t>
-  </si>
-  <si>
     <t>HSA00620_PYRUVATE_METABOLISM</t>
   </si>
   <si>
@@ -308,18 +308,18 @@
     <t>HSA00030_PENTOSE_PHOSPHATE_PATHWAY</t>
   </si>
   <si>
+    <t>HSA00010_GLYCOLYSIS_GLUCONEOGENESIS</t>
+  </si>
+  <si>
     <t>HSA01212_FATTY_ACID_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00010_GLYCOLYSIS_GLUCONEOGENESIS</t>
+    <t>HSA00630_GLYOXYLATE_AND_DICARBOXYLATE_METABOLISM</t>
   </si>
   <si>
     <t>HSA00983_DRUG_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00630_GLYOXYLATE_AND_DICARBOXYLATE_METABOLISM</t>
-  </si>
-  <si>
     <t>HSA00860_PORPHYRIN_AND_CHLOROPHYLL_METABOLISM</t>
   </si>
   <si>
@@ -359,36 +359,36 @@
     <t>HSA00591_LINOLEIC_ACID_METABOLISM</t>
   </si>
   <si>
+    <t>HSA00310_LYSINE_DEGRADATION</t>
+  </si>
+  <si>
+    <t>HSA00450_SELENOCOMPOUND_METABOLISM</t>
+  </si>
+  <si>
     <t>HSA00051_FRUCTOSE_AND_MANNOSE_METABOLISM</t>
   </si>
   <si>
     <t>HSA00561_GLYCEROLIPID_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00310_LYSINE_DEGRADATION</t>
-  </si>
-  <si>
-    <t>HSA00450_SELENOCOMPOUND_METABOLISM</t>
-  </si>
-  <si>
     <t>HSA00410_BETA_ALANINE_METABOLISM</t>
   </si>
   <si>
     <t>HSA00380_TRYPTOPHAN_METABOLISM</t>
   </si>
   <si>
+    <t>HSA00140_STEROID_HORMONE_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t>HSA00360_PHENYLALANINE_METABOLISM</t>
+  </si>
+  <si>
     <t>HSA00350_TYROSINE_METABOLISM</t>
   </si>
   <si>
     <t>HSA00604_GLYCOSPHINGOLIPID_BIOSYNTHESIS</t>
   </si>
   <si>
-    <t>HSA00360_PHENYLALANINE_METABOLISM</t>
-  </si>
-  <si>
-    <t>HSA00140_STEROID_HORMONE_BIOSYNTHESIS</t>
-  </si>
-  <si>
     <t>HSA00500_STARCH_AND_SUCROSE_METABOLISM</t>
   </si>
   <si>
@@ -410,30 +410,30 @@
     <t>HSA00564_GLYCEROPHOSPHOLIPID_METABOLISM</t>
   </si>
   <si>
+    <t>HSA00980_METABOLISM_OF_XENOBIOTICS_BY_CYTOCHROME_P450</t>
+  </si>
+  <si>
     <t>HSA01040_BIOSYNTHESIS_OF_UNSATURATED_FATTY_ACIDS</t>
   </si>
   <si>
-    <t>HSA00980_METABOLISM_OF_XENOBIOTICS_BY_CYTOCHROME_P450</t>
-  </si>
-  <si>
     <t>HSA00330_ARGININE_AND_PROLINE_METABOLISM</t>
   </si>
   <si>
     <t>HSA00601_GLYCOSPHINGOLIPID_BIOSYNTHESIS</t>
   </si>
   <si>
+    <t>HSA00565_ETHER_LIPID_METABOLISM</t>
+  </si>
+  <si>
     <t>HSA00520_AMINO_SUGAR_AND_NUCLEOTIDE_SUGAR_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00565_ETHER_LIPID_METABOLISM</t>
+    <t>HSA00100_STEROID_BIOSYNTHESIS</t>
   </si>
   <si>
     <t>HSA00340_HISTIDINE_METABOLISM</t>
   </si>
   <si>
-    <t>HSA00100_STEROID_BIOSYNTHESIS</t>
-  </si>
-  <si>
     <t>HSA00531_GLYCOSAMINOGLYCAN_DEGRADATION</t>
   </si>
   <si>
@@ -692,33 +692,33 @@
     <t>H_ALL_4_HALLMARK_MITOTIC_SPINDLE</t>
   </si>
   <si>
+    <t>H_ALL_37_HALLMARK_P53_PATHWAY</t>
+  </si>
+  <si>
     <t>H_ALL_23_HALLMARK_COMPLEMENT</t>
   </si>
   <si>
-    <t>H_ALL_37_HALLMARK_P53_PATHWAY</t>
-  </si>
-  <si>
     <t>H_ALL_21_HALLMARK_APICAL_SURFACE</t>
   </si>
   <si>
+    <t>H_ALL_40_HALLMARK_ANGIOGENESIS</t>
+  </si>
+  <si>
+    <t>H_ALL_32_HALLMARK_XENOBIOTIC_METABOLISM</t>
+  </si>
+  <si>
     <t>H_ALL_17_HALLMARK_PROTEIN_SECRETION</t>
   </si>
   <si>
-    <t>H_ALL_40_HALLMARK_ANGIOGENESIS</t>
-  </si>
-  <si>
-    <t>H_ALL_32_HALLMARK_XENOBIOTIC_METABOLISM</t>
-  </si>
-  <si>
     <t>H_ALL_11_HALLMARK_NOTCH_SIGNALING</t>
   </si>
   <si>
+    <t>H_ALL_22_HALLMARK_HEDGEHOG_SIGNALING</t>
+  </si>
+  <si>
     <t>H_ALL_10_HALLMARK_APOPTOSIS</t>
   </si>
   <si>
-    <t>H_ALL_22_HALLMARK_HEDGEHOG_SIGNALING</t>
-  </si>
-  <si>
     <t>H_ALL_35_HALLMARK_GLYCOLYSIS</t>
   </si>
   <si>
@@ -1256,30 +1256,30 @@
     <t>198860_WP111_ELECTRON_TRANSPORT_CHAIN</t>
   </si>
   <si>
+    <t>198771_WP466_DNA_REPLICATION</t>
+  </si>
+  <si>
     <t>198853_WP477_CYTOPLASMIC_RIBOSOMAL_PROTEINS</t>
   </si>
   <si>
-    <t>198771_WP466_DNA_REPLICATION</t>
-  </si>
-  <si>
     <t>198870_WP623_OXIDATIVE_PHOSPHORYLATION</t>
   </si>
   <si>
+    <t>198876_WP404_NUCLEOTIDE_METABOLISM</t>
+  </si>
+  <si>
+    <t>198811_WP179_CELL_CYCLE</t>
+  </si>
+  <si>
+    <t>198909_WP23_B_CELL_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>920977_WP2446_RB_IN_CANCER</t>
+  </si>
+  <si>
     <t>198756_WP241_ONE_CARBON_METABOLISM</t>
   </si>
   <si>
-    <t>198811_WP179_CELL_CYCLE</t>
-  </si>
-  <si>
-    <t>198876_WP404_NUCLEOTIDE_METABOLISM</t>
-  </si>
-  <si>
-    <t>198909_WP23_B_CELL_RECEPTOR_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>920977_WP2446_RB_IN_CANCER</t>
-  </si>
-  <si>
     <t>198885_WP49_IL_2_SIGNALING_PATHWAY</t>
   </si>
   <si>
@@ -1301,15 +1301,15 @@
     <t>198805_WP45_G1_TO_S_CELL_CYCLE_CONTROL</t>
   </si>
   <si>
+    <t>198814_WP534_GLYCOLYSIS_AND_GLUCONEOGENESIS</t>
+  </si>
+  <si>
     <t>198917_WP405_EUKARYOTIC_TRANSCRIPTION_INITIATION</t>
   </si>
   <si>
     <t>920958_WP2525_TRANS_SULFURATION_AND_ONE_CARBON_METABOLISM</t>
   </si>
   <si>
-    <t>198814_WP534_GLYCOLYSIS_AND_GLUCONEOGENESIS</t>
-  </si>
-  <si>
     <t>198760_WP395_IL_4_SIGNALING_PATHWAY</t>
   </si>
   <si>
@@ -1319,60 +1319,60 @@
     <t>198800_WP524_G13_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198865_WP143_FATTY_ACID_BETA_OXIDATION</t>
+  </si>
+  <si>
+    <t>198769_WP12_OSTEOCLAST_SIGNALING</t>
+  </si>
+  <si>
+    <t>198897_WP24_PEPTIDE_GPCRS</t>
+  </si>
+  <si>
     <t>198918_WP619_TYPE_II_INTERFERON_SIGNALING_IFNG_</t>
   </si>
   <si>
-    <t>198769_WP12_OSTEOCLAST_SIGNALING</t>
-  </si>
-  <si>
-    <t>198897_WP24_PEPTIDE_GPCRS</t>
-  </si>
-  <si>
-    <t>198865_WP143_FATTY_ACID_BETA_OXIDATION</t>
-  </si>
-  <si>
     <t>920963_WP2328_ALLOGRAFT_REJECTION</t>
   </si>
   <si>
     <t>198877_WP384_APOPTOSIS_MODULATION_BY_HSP70</t>
   </si>
   <si>
+    <t>198788_WP707_DNA_DAMAGE_RESPONSE</t>
+  </si>
+  <si>
     <t>920993_WP585_INTERFERON_TYPE_I</t>
   </si>
   <si>
-    <t>198788_WP707_DNA_DAMAGE_RESPONSE</t>
-  </si>
-  <si>
     <t>672449_WP2012_MIRS_IN_MUSCLE_CELL_DIFFERENTIATION</t>
   </si>
   <si>
     <t>198884_WP231_TNF_ALPHA_NF_KB_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198883_WP22_IL_9_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>672446_WP2032_TSH_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>198803_WP107_TRANSLATION_FACTORS</t>
+  </si>
+  <si>
     <t>198792_WP1433_NOD_PATHWAY</t>
   </si>
   <si>
-    <t>198803_WP107_TRANSLATION_FACTORS</t>
-  </si>
-  <si>
-    <t>672446_WP2032_TSH_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>198883_WP22_IL_9_SIGNALING_PATHWAY</t>
+    <t>198826_WP304_KIT_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>920975_WP2447_AMYOTROPHIC_LATERAL_SCLEROSIS_ALS_</t>
   </si>
   <si>
     <t>672459_WP2272_PATHOGENIC_ESCHERICHIA_COLI_INFECTION</t>
   </si>
   <si>
-    <t>920975_WP2447_AMYOTROPHIC_LATERAL_SCLEROSIS_ALS_</t>
-  </si>
-  <si>
     <t>198776_WP666_HYPOTHETICAL_NETWORK_FOR_DRUG_ADDICTION</t>
   </si>
   <si>
-    <t>198826_WP304_KIT_RECEPTOR_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>705377_WP2371_PARKINSONS_DISEASE_PATHWAY</t>
   </si>
   <si>
@@ -1382,30 +1382,30 @@
     <t>198881_WP286_IL_3_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198797_WP254_APOPTOSIS</t>
+  </si>
+  <si>
     <t>198913_WP1545_MIRNAS_INVOLVED_IN_DDR</t>
   </si>
   <si>
-    <t>198797_WP254_APOPTOSIS</t>
+    <t>672450_WP1971_INTEGRATED_CANCER_PATHWAY</t>
+  </si>
+  <si>
+    <t>198882_WP581_EPO_RECEPTOR_SIGNALING</t>
   </si>
   <si>
     <t>198878_WP732_SEROTONIN_RECEPTOR_2_AND_ELK_SRF_GATA4_SIGNALING</t>
   </si>
   <si>
-    <t>672450_WP1971_INTEGRATED_CANCER_PATHWAY</t>
-  </si>
-  <si>
-    <t>198882_WP581_EPO_RECEPTOR_SIGNALING</t>
+    <t>760637_WP2363_GASTRIC_CANCER_NETWORK_2</t>
+  </si>
+  <si>
+    <t>198778_WP1601_FLUOROPYRIMIDINE_ACTIVITY</t>
   </si>
   <si>
     <t>198857_WP205_IL_7_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>760637_WP2363_GASTRIC_CANCER_NETWORK_2</t>
-  </si>
-  <si>
-    <t>198778_WP1601_FLUOROPYRIMIDINE_ACTIVITY</t>
-  </si>
-  <si>
     <t>700638_WP2359_PARKIN_UBIQUITIN_PROTEASOMAL_SYSTEM_PATHWAY</t>
   </si>
   <si>
@@ -1418,15 +1418,15 @@
     <t>198855_WP75_TOLL_LIKE_RECEPTOR_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198872_WP734_SEROTONIN_RECEPTOR_4_6_7_AND_NR3C_SIGNALING</t>
+  </si>
+  <si>
     <t>198791_WP1584_TYPE_II_DIABETES_MELLITUS</t>
   </si>
   <si>
     <t>760635_WP2361_GASTRIC_CANCER_NETWORK_1</t>
   </si>
   <si>
-    <t>198872_WP734_SEROTONIN_RECEPTOR_4_6_7_AND_NR3C_SIGNALING</t>
-  </si>
-  <si>
     <t>198758_WP497_UREA_CYCLE_AND_METABOLISM_OF_AMINO_GROUPS</t>
   </si>
   <si>
@@ -1442,28 +1442,34 @@
     <t>198863_WP712_ESTROGEN_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198765_WP117_GPCRS_OTHER</t>
+  </si>
+  <si>
+    <t>198835_WP47_HEDGEHOG_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
     <t>698755_WP2289_DRUG_INDUCTION_OF_BILE_ACID_PATHWAY</t>
   </si>
   <si>
-    <t>198765_WP117_GPCRS_OTHER</t>
-  </si>
-  <si>
     <t>198763_WP554_ACE_INHIBITOR_PATHWAY</t>
   </si>
   <si>
-    <t>198835_WP47_HEDGEHOG_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>198819_WP26_SIGNAL_TRANSDUCTION_OF_S1P_RECEPTOR</t>
   </si>
   <si>
     <t>672457_WP2267_SYNAPTIC_VESICLE_PATHWAY</t>
   </si>
   <si>
+    <t>198833_WP176_FOLATE_METABOLISM</t>
+  </si>
+  <si>
     <t>198850_WP465_TRYPTOPHAN_METABOLISM</t>
   </si>
   <si>
-    <t>198833_WP176_FOLATE_METABOLISM</t>
+    <t>198868_WP1403_AMPK_SIGNALING</t>
+  </si>
+  <si>
+    <t>920974_WP1533_VITAMIN_B12_METABOLISM</t>
   </si>
   <si>
     <t>198852_WP430_STATIN_PATHWAY</t>
@@ -1472,82 +1478,79 @@
     <t>198837_WP702_METAPATHWAY_BIOTRANSFORMATION</t>
   </si>
   <si>
-    <t>198868_WP1403_AMPK_SIGNALING</t>
-  </si>
-  <si>
-    <t>920974_WP1533_VITAMIN_B12_METABOLISM</t>
+    <t>198813_WP410_DIURNALLY_REGULATED_GENES_WITH_CIRCADIAN_ORTHOLOGS</t>
   </si>
   <si>
     <t>198873_WP357_FATTY_ACID_BIOSYNTHESIS</t>
   </si>
   <si>
-    <t>198813_WP410_DIURNALLY_REGULATED_GENES_WITH_CIRCADIAN_ORTHOLOGS</t>
-  </si>
-  <si>
     <t>198901_WP706_SIDS_SUSCEPTIBILITY_PATHWAYS</t>
   </si>
   <si>
+    <t>198859_WP325_TRIACYLGLYCERIDE_SYNTHESIS</t>
+  </si>
+  <si>
     <t>672451_WP2203_TSLP_SIGNALING_PATHWAY</t>
   </si>
   <si>
     <t>198794_WP530_CYTOKINES_AND_INFLAMMATORY_RESPONSE</t>
   </si>
   <si>
+    <t>198879_WP61_DELTA_NOTCH_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>198790_WP262_EBV_LMP1_SIGNALING</t>
+  </si>
+  <si>
+    <t>198836_WP313_SIGNALING_OF_HEPATOCYTE_GROWTH_FACTOR_RECEPTOR</t>
+  </si>
+  <si>
+    <t>219802_WP1982_SREBP_SIGNALLING</t>
+  </si>
+  <si>
     <t>198801_WP34_OVARIAN_INFERTILITY_GENES</t>
   </si>
   <si>
-    <t>198879_WP61_DELTA_NOTCH_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>198836_WP313_SIGNALING_OF_HEPATOCYTE_GROWTH_FACTOR_RECEPTOR</t>
-  </si>
-  <si>
     <t>698753_WP2332_INTERLEUKIN_11_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>198859_WP325_TRIACYLGLYCERIDE_SYNTHESIS</t>
-  </si>
-  <si>
-    <t>219802_WP1982_SREBP_SIGNALLING</t>
-  </si>
-  <si>
     <t>198827_WP710_DNA_DAMAGE_RESPONSE_ONLY_ATM_DEPENDENT_</t>
   </si>
   <si>
-    <t>198790_WP262_EBV_LMP1_SIGNALING</t>
-  </si>
-  <si>
     <t>755440_WP2263_PROSTATE_CANCER</t>
   </si>
   <si>
+    <t>920957_WP2355_CORTICOTROPIN_RELEASING_HORMONE</t>
+  </si>
+  <si>
     <t>198896_WP1742_TP53_NETWORK</t>
   </si>
   <si>
-    <t>920957_WP2355_CORTICOTROPIN_RELEASING_HORMONE</t>
-  </si>
-  <si>
     <t>198822_WP1772_APOPTOSIS_MODULATION_AND_SIGNALING</t>
   </si>
   <si>
+    <t>672462_WP2037_PROLACTIN_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
     <t>198888_WP167_EICOSANOID_SYNTHESIS</t>
   </si>
   <si>
     <t>698757_WP2291_DEREGULATION_OF_RAB_AND_RAB_EFFECTOR_GENES_IN_BLADDER_CANCER</t>
   </si>
   <si>
-    <t>672462_WP2037_PROLACTIN_SIGNALING_PATHWAY</t>
+    <t>198785_WP716_VITAMIN_A_AND_CAROTENOID_METABOLISM</t>
+  </si>
+  <si>
+    <t>198781_WP334_GPCRS_CLASS_B_SECRETIN_LIKE</t>
+  </si>
+  <si>
+    <t>198779_WP382_MAPK_SIGNALING_PATHWAY</t>
   </si>
   <si>
     <t>198916_WP408_OXIDATIVE_STRESS</t>
   </si>
   <si>
-    <t>198781_WP334_GPCRS_CLASS_B_SECRETIN_LIKE</t>
-  </si>
-  <si>
-    <t>198785_WP716_VITAMIN_A_AND_CAROTENOID_METABOLISM</t>
-  </si>
-  <si>
-    <t>198779_WP382_MAPK_SIGNALING_PATHWAY</t>
+    <t>198849_WP35_G_PROTEIN_SIGNALING_PATHWAYS</t>
   </si>
   <si>
     <t>219801_WP1984_INTEGRATED_BREAST_CANCER_PATHWAY</t>
@@ -1556,30 +1559,27 @@
     <t>755438_WP2011_SREBF_AND_MIR33_IN_CHOLESTEROL_AND_LIPID_HOMEOSTASIS</t>
   </si>
   <si>
-    <t>198849_WP35_G_PROTEIN_SIGNALING_PATHWAYS</t>
+    <t>198891_WP268_NOTCH_SIGNALING_PATHWAY</t>
   </si>
   <si>
     <t>198871_WP53_ID_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>198891_WP268_NOTCH_SIGNALING_PATHWAY</t>
+    <t>712094_WP2406_CARDIAC_PROGENITOR_DIFFERENTIATION</t>
+  </si>
+  <si>
+    <t>672448_WP2059_ALZHEIMERS_DISEASE</t>
+  </si>
+  <si>
+    <t>920968_WP2112_IL17_SIGNALING_PATHWAY</t>
   </si>
   <si>
     <t>198825_WP15_SELENIUM_PATHWAY</t>
   </si>
   <si>
-    <t>712094_WP2406_CARDIAC_PROGENITOR_DIFFERENTIATION</t>
-  </si>
-  <si>
-    <t>920968_WP2112_IL17_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>198834_WP422_MAPK_CASCADE</t>
   </si>
   <si>
-    <t>672448_WP2059_ALZHEIMERS_DISEASE</t>
-  </si>
-  <si>
     <t>198845_WP481_INSULIN_SIGNALING</t>
   </si>
   <si>
@@ -1589,21 +1589,21 @@
     <t>198773_WP43_CYTOCHROME_P450</t>
   </si>
   <si>
+    <t>198762_WP1471_TOR_SIGNALING</t>
+  </si>
+  <si>
+    <t>198846_WP28_SELENIUM_METABOLISM_AND_SELENOPROTEINS</t>
+  </si>
+  <si>
+    <t>672455_WP2035_FSH_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
     <t>198906_WP536_CALCIUM_REGULATION_IN_THE_CARDIAC_CELL</t>
   </si>
   <si>
-    <t>198762_WP1471_TOR_SIGNALING</t>
-  </si>
-  <si>
-    <t>198846_WP28_SELENIUM_METABOLISM_AND_SELENOPROTEINS</t>
-  </si>
-  <si>
     <t>198782_WP437_EGFR1_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>672455_WP2035_FSH_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>198874_WP51_REGULATION_OF_ACTIN_CYTOSKELETON</t>
   </si>
   <si>
@@ -1613,28 +1613,37 @@
     <t>198774_WP366_TGF_BETA_RECEPTOR_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198864_WP364_IL_6_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>698754_WP2324_AGE_RAGE_PATHWAY</t>
+  </si>
+  <si>
+    <t>198851_WP727_MONOAMINE_TRANSPORT</t>
+  </si>
+  <si>
+    <t>712093_WP2380_BDNF_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>760636_WP1422_SPHINGOLIPID_METABOLISM</t>
+  </si>
+  <si>
+    <t>198809_WP197_CHOLESTEROL_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t>755439_WP2038_REGULATION_OF_MICROTUBULE_CYTOSKELETON</t>
+  </si>
+  <si>
+    <t>672453_WP2197_ENDOTHELIN</t>
+  </si>
+  <si>
     <t>672447_WP2018_RANKL_RANK_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>198864_WP364_IL_6_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>198851_WP727_MONOAMINE_TRANSPORT</t>
-  </si>
-  <si>
-    <t>712093_WP2380_BDNF_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>698754_WP2324_AGE_RAGE_PATHWAY</t>
-  </si>
-  <si>
-    <t>755439_WP2038_REGULATION_OF_MICROTUBULE_CYTOSKELETON</t>
-  </si>
-  <si>
-    <t>760636_WP1422_SPHINGOLIPID_METABOLISM</t>
-  </si>
-  <si>
-    <t>198809_WP197_CHOLESTEROL_BIOSYNTHESIS</t>
+    <t>198848_WP170_NUCLEAR_RECEPTORS</t>
+  </si>
+  <si>
+    <t>672452_WP2036_TWEAK_SIGNALING_PATHWAY</t>
   </si>
   <si>
     <t>198802_WP1591_HEART_DEVELOPMENT</t>
@@ -1643,85 +1652,76 @@
     <t>198893_WP400_P38_MAPK_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>672452_WP2036_TWEAK_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>672458_WP2261_SIGNALING_PATHWAYS_IN_GLIOBLASTOMA</t>
   </si>
   <si>
-    <t>672453_WP2197_ENDOTHELIN</t>
-  </si>
-  <si>
     <t>672456_WP2034_LEPTIN_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>198848_WP170_NUCLEAR_RECEPTORS</t>
-  </si>
-  <si>
     <t>198766_WP453_INFLAMMATORY_RESPONSE_PATHWAY</t>
   </si>
   <si>
+    <t>711360_WP2377_INTEGRATED_PANCREATIC_CANCER_PATHWAY</t>
+  </si>
+  <si>
+    <t>198812_WP474_ENDOCHONDRAL_OSSIFICATION</t>
+  </si>
+  <si>
+    <t>198847_WP399_WNT_SIGNALING_PATHWAY_AND_PLURIPOTENCY</t>
+  </si>
+  <si>
+    <t>198856_WP500_GLYCOGEN_METABOLISM</t>
+  </si>
+  <si>
     <t>920978_WP1528_PHYSIOLOGICAL_AND_PATHOLOGICAL_HYPERTROPHY_OF_THE_HEART</t>
   </si>
   <si>
-    <t>711360_WP2377_INTEGRATED_PANCREATIC_CANCER_PATHWAY</t>
-  </si>
-  <si>
-    <t>198812_WP474_ENDOCHONDRAL_OSSIFICATION</t>
-  </si>
-  <si>
-    <t>198856_WP500_GLYCOGEN_METABOLISM</t>
-  </si>
-  <si>
-    <t>198847_WP399_WNT_SIGNALING_PATHWAY_AND_PLURIPOTENCY</t>
-  </si>
-  <si>
     <t>198832_WP236_ADIPOGENESIS</t>
   </si>
   <si>
     <t>739007_WP2431_SPINAL_CORD_INJURY</t>
   </si>
   <si>
+    <t>755436_WP2100_AHR_PATHWAY</t>
+  </si>
+  <si>
+    <t>198810_WP560_TGF_BETA_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
     <t>198900_WP129_MATRIX_METALLOPROTEINASES</t>
   </si>
   <si>
-    <t>755436_WP2100_AHR_PATHWAY</t>
-  </si>
-  <si>
-    <t>198810_WP560_TGF_BETA_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>711361_WP2374_ONCOSTATIN_M_SIGNALING_PATHWAY</t>
   </si>
   <si>
+    <t>198759_WP289_MYOMETRIAL_RELAXATION_AND_CONTRACTION_PATHWAYS</t>
+  </si>
+  <si>
     <t>672460_WP2064_NEURAL_CREST_DIFFERENTIATION</t>
   </si>
   <si>
-    <t>198759_WP289_MYOMETRIAL_RELAXATION_AND_CONTRACTION_PATHWAYS</t>
-  </si>
-  <si>
     <t>198806_WP138_ANDROGEN_RECEPTOR_SIGNALING_PATHWAY</t>
   </si>
   <si>
     <t>198799_WP363_WNT_SIGNALING_PATHWAY_NETPATH</t>
   </si>
   <si>
+    <t>198844_WP673_ERBB_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t>198828_WP516_HYPERTROPHY_MODEL</t>
+  </si>
+  <si>
+    <t>198772_WP1539_ANGIOGENESIS</t>
+  </si>
+  <si>
+    <t>198840_WP272_BLOOD_CLOTTING_CASCADE</t>
+  </si>
+  <si>
     <t>198880_WP558_COMPLEMENT_AND_COAGULATION_CASCADES</t>
   </si>
   <si>
-    <t>198844_WP673_ERBB_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>198828_WP516_HYPERTROPHY_MODEL</t>
-  </si>
-  <si>
-    <t>198840_WP272_BLOOD_CLOTTING_CASCADE</t>
-  </si>
-  <si>
     <t>198816_WP185_INTEGRIN_MEDIATED_CELL_ADHESION</t>
-  </si>
-  <si>
-    <t>198772_WP1539_ANGIOGENESIS</t>
   </si>
   <si>
     <t>198780_WP615_SENESCENCE_AND_AUTOPHAGY</t>
@@ -1910,13 +1910,13 @@
         <v>110.0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-2.000151</v>
+        <v>-1.9836346</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.0011785715</v>
+        <v>0.0026100876</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>143</v>
@@ -1936,13 +1936,13 @@
         <v>163.0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>-1.8072375</v>
+        <v>-1.8103689</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.013343095</v>
+        <v>0.020029003</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>143</v>
@@ -1962,13 +1962,13 @@
         <v>97.0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>-1.7771324</v>
+        <v>-1.7817502</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.013664252</v>
+        <v>0.019110922</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>143</v>
@@ -1988,13 +1988,13 @@
         <v>43.0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>-1.7120082</v>
+        <v>-1.7465992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0019569471</v>
+        <v>0.00390625</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.030388668</v>
+        <v>0.022656137</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>143</v>
@@ -2011,16 +2011,16 @@
         <v>80</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>-1.6616365</v>
+        <v>-1.6293715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0</v>
+        <v>0.018726591</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0438385</v>
+        <v>0.06617332</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>143</v>
@@ -2037,16 +2037,16 @@
         <v>81</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>-1.6453214</v>
+        <v>-1.624301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.007662835</v>
+        <v>0.011494253</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.044854663</v>
+        <v>0.0590003</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>143</v>
@@ -2063,16 +2063,16 @@
         <v>82</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>27.0</v>
+        <v>103.0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>-1.5829065</v>
+        <v>-1.5722691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.027184466</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07299351</v>
+        <v>0.08415424</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>143</v>
@@ -2089,16 +2089,16 @@
         <v>83</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>103.0</v>
+        <v>27.0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>-1.5621468</v>
+        <v>-1.5443692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0019267823</v>
+        <v>0.030737706</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.082978785</v>
+        <v>0.0981195</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>143</v>
@@ -2118,13 +2118,13 @@
         <v>189.0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>-1.511665</v>
+        <v>-1.5054876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0020408162</v>
+        <v>0.0019569471</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.11407321</v>
+        <v>0.12061651</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>143</v>
@@ -2144,13 +2144,13 @@
         <v>23.0</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>-1.441057</v>
+        <v>-1.4194311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06378987</v>
+        <v>0.06614786</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.16605052</v>
+        <v>0.19422124</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>143</v>
@@ -2170,13 +2170,13 @@
         <v>26.0</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>-1.3805631</v>
+        <v>-1.3894523</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.078470826</v>
+        <v>0.08534323</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.22579546</v>
+        <v>0.21248625</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>143</v>
@@ -2196,13 +2196,13 @@
         <v>63.0</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>-1.3579075</v>
+        <v>-1.3573266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.054263566</v>
+        <v>0.057539683</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.23683134</v>
+        <v>0.23552753</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>143</v>
@@ -2219,16 +2219,16 @@
         <v>88</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>-1.3030106</v>
+        <v>-1.2962431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.11028037</v>
+        <v>0.1311787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.30198422</v>
+        <v>0.3123308</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>143</v>
@@ -2245,16 +2245,16 @@
         <v>89</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>-1.2884654</v>
+        <v>-1.2850355</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.17300381</v>
+        <v>0.14587332</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.30281532</v>
+        <v>0.30991963</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>143</v>
@@ -2274,13 +2274,13 @@
         <v>46.0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>-1.1872278</v>
+        <v>-1.197376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.20168068</v>
+        <v>0.203125</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.47085637</v>
+        <v>0.45443237</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>143</v>
@@ -2297,16 +2297,16 @@
         <v>91</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>61.0</v>
+        <v>26.0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>-1.1348616</v>
+        <v>-1.1466064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.23030303</v>
+        <v>0.26879698</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.55592763</v>
+        <v>0.53799886</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>143</v>
@@ -2323,16 +2323,16 @@
         <v>92</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>26.0</v>
+        <v>61.0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>-1.129229</v>
+        <v>-1.1428674</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.30214426</v>
+        <v>0.21893491</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5375793</v>
+        <v>0.5149043</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>143</v>
@@ -2352,13 +2352,13 @@
         <v>39.0</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>-1.1081054</v>
+        <v>-1.1236359</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.28769842</v>
+        <v>0.2689243</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5554752</v>
+        <v>0.52863055</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>143</v>
@@ -2378,13 +2378,13 @@
         <v>17.0</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>-1.0866575</v>
+        <v>-1.0941898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.35452795</v>
+        <v>0.358047</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.57749176</v>
+        <v>0.5648775</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>143</v>
@@ -2404,13 +2404,13 @@
         <v>30.0</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>-1.0579493</v>
+        <v>-1.0759135</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.37351778</v>
+        <v>0.34077078</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6113614</v>
+        <v>0.5749509</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>143</v>
@@ -2430,13 +2430,13 @@
         <v>27.0</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>-0.98812115</v>
+        <v>-0.9953539</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.482</v>
+        <v>0.4692029</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7471264</v>
+        <v>0.7303883</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>143</v>
@@ -2453,16 +2453,16 @@
         <v>97</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>-0.9337987</v>
+        <v>-0.91858196</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5753425</v>
+        <v>0.59099805</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.84835166</v>
+        <v>0.8830846</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>143</v>
@@ -2479,16 +2479,16 @@
         <v>98</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>-0.92834777</v>
+        <v>-0.8925517</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5746421</v>
+        <v>0.6554935</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8270431</v>
+        <v>0.91076094</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>143</v>
@@ -2505,16 +2505,16 @@
         <v>99</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>-0.8498906</v>
+        <v>-0.8493057</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7200772</v>
+        <v>0.6791745</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.97249365</v>
+        <v>0.97402245</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>143</v>
@@ -2531,16 +2531,16 @@
         <v>100</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>-0.8390853</v>
+        <v>-0.84756196</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.69673705</v>
+        <v>0.7059925</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9559424</v>
+        <v>0.93833774</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>143</v>
@@ -2560,13 +2560,13 @@
         <v>29.0</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>-0.82676834</v>
+        <v>-0.82731277</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7732558</v>
+        <v>0.71760154</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9458807</v>
+        <v>0.944122</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>143</v>
@@ -2586,13 +2586,13 @@
         <v>47.0</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>-0.81679505</v>
+        <v>-0.8055632</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.78904665</v>
+        <v>0.8117409</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9307768</v>
+        <v>0.95226127</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>143</v>
@@ -2612,13 +2612,13 @@
         <v>28.0</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>-0.7639829</v>
+        <v>-0.7920048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.81488204</v>
+        <v>0.7771318</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.98973715</v>
+        <v>0.94195884</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>143</v>
@@ -2638,10 +2638,10 @@
         <v>21.0</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>-0.72364265</v>
+        <v>-0.7116981</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.86011344</v>
+        <v>0.85375494</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>1.0</v>
@@ -2664,13 +2664,13 @@
         <v>43.0</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>-0.69693404</v>
+        <v>-0.706911</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0.9261261</v>
+        <v>0.906</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1.0</v>
+        <v>0.9927784</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>143</v>
@@ -2690,13 +2690,13 @@
         <v>41.0</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>-0.6959288</v>
+        <v>-0.6983644</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>0.943662</v>
+        <v>0.9246436</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9731037</v>
+        <v>0.968796</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>143</v>
@@ -2716,13 +2716,13 @@
         <v>16.0</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>-0.66582644</v>
+        <v>-0.6760829</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>0.88640594</v>
+        <v>0.8951175</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.96885973</v>
+        <v>0.95788854</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>143</v>
@@ -2742,13 +2742,13 @@
         <v>20.0</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>-0.56382686</v>
+        <v>-0.5744564</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0.96606785</v>
+        <v>0.97514343</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.98342264</v>
+        <v>0.9793049</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>143</v>
@@ -2768,13 +2768,13 @@
         <v>16.0</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>0.5759876</v>
+        <v>0.5778213</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.9692623</v>
+        <v>0.95922744</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.9791448</v>
+        <v>0.9767239</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>144</v>
@@ -2794,13 +2794,13 @@
         <v>45.0</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>0.7030018</v>
+        <v>0.7073652</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.91358024</v>
+        <v>0.9178645</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.92963666</v>
+        <v>0.923283</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>144</v>
@@ -2820,13 +2820,13 @@
         <v>35.0</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>0.74768984</v>
+        <v>0.7432008</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0.84468085</v>
+        <v>0.84648186</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.90448034</v>
+        <v>0.9094942</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>144</v>
@@ -2846,13 +2846,13 @@
         <v>20.0</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>0.7527904</v>
+        <v>0.75029033</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>0.7879418</v>
+        <v>0.814741</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.926784</v>
+        <v>0.9291976</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>144</v>
@@ -2872,13 +2872,13 @@
         <v>22.0</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.8133888</v>
+        <v>0.81784755</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>0.73766816</v>
+        <v>0.72670805</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.86185265</v>
+        <v>0.85406196</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>144</v>
@@ -2895,16 +2895,16 @@
         <v>114</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0.8331193</v>
+        <v>0.8367857</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0.7385892</v>
+        <v>0.77310926</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.8548633</v>
+        <v>0.84793264</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>144</v>
@@ -2921,16 +2921,16 @@
         <v>115</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>48.0</v>
+        <v>16.0</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.8436717</v>
+        <v>0.8420445</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.72727275</v>
+        <v>0.6593407</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.8648117</v>
+        <v>0.86736155</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>144</v>
@@ -2947,16 +2947,16 @@
         <v>116</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>51.0</v>
+        <v>30.0</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>0.8479249</v>
+        <v>0.84297436</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.7418699</v>
+        <v>0.7</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.8879465</v>
+        <v>0.8976447</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>144</v>
@@ -2973,16 +2973,16 @@
         <v>117</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>16.0</v>
+        <v>48.0</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>0.85289705</v>
+        <v>0.8472027</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>0.6363636</v>
+        <v>0.7250996</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.9099521</v>
+        <v>0.9231572</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>144</v>
@@ -3002,13 +3002,13 @@
         <v>29.0</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.8563047</v>
+        <v>0.85807496</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>0.686</v>
+        <v>0.691023</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.93835396</v>
+        <v>0.93580943</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>144</v>
@@ -3028,13 +3028,13 @@
         <v>37.0</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>0.89751506</v>
+        <v>0.8916228</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>0.6472946</v>
+        <v>0.64634144</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.88173854</v>
+        <v>0.89737666</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>144</v>
@@ -3051,16 +3051,16 @@
         <v>120</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.89900935</v>
+        <v>0.89866257</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>0.61067194</v>
+        <v>0.58762884</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.91597575</v>
+        <v>0.9185571</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>144</v>
@@ -3077,16 +3077,16 @@
         <v>121</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.89999044</v>
+        <v>0.90230954</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.6021277</v>
+        <v>0.58577406</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.9549866</v>
+        <v>0.95029575</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>144</v>
@@ -3103,16 +3103,16 @@
         <v>122</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>0.91337866</v>
+        <v>0.90236014</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.5795918</v>
+        <v>0.6065259</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.96271366</v>
+        <v>0.9954833</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>144</v>
@@ -3129,16 +3129,16 @@
         <v>123</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>39.0</v>
+        <v>15.0</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>0.9182257</v>
+        <v>0.9061801</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>0.56567794</v>
+        <v>0.5932914</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.9962759</v>
+        <v>1.0</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>144</v>
@@ -3158,10 +3158,10 @@
         <v>36.0</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.9311613</v>
+        <v>0.9174732</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>0.5778252</v>
+        <v>0.5843882</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>1.0</v>
@@ -3184,10 +3184,10 @@
         <v>18.0</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.94176817</v>
+        <v>0.9262533</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>0.5157233</v>
+        <v>0.57608694</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>1.0</v>
@@ -3210,10 +3210,10 @@
         <v>26.0</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>0.94847167</v>
+        <v>0.94539815</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>0.53333336</v>
+        <v>0.54960316</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>1.0</v>
@@ -3236,10 +3236,10 @@
         <v>22.0</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>0.9773722</v>
+        <v>0.98104286</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.48755187</v>
+        <v>0.49565217</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>1.0</v>
@@ -3262,10 +3262,10 @@
         <v>19.0</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>0.98693436</v>
+        <v>0.9922952</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.47629312</v>
+        <v>0.46900827</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>1.0</v>
@@ -3288,10 +3288,10 @@
         <v>37.0</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.001976</v>
+        <v>0.9966505</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>0.43897218</v>
+        <v>0.46637744</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>1.0</v>
@@ -3314,10 +3314,10 @@
         <v>80.0</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.0137359</v>
+        <v>1.0214711</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>0.4207317</v>
+        <v>0.41700405</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>1.0</v>
@@ -3337,16 +3337,16 @@
         <v>131</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>19.0</v>
+        <v>48.0</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.096184</v>
+        <v>1.0879184</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>0.35463917</v>
+        <v>0.31827515</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.90312064</v>
+        <v>0.93729347</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>144</v>
@@ -3363,16 +3363,16 @@
         <v>132</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>48.0</v>
+        <v>19.0</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>1.1005597</v>
+        <v>1.1024607</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>0.3272727</v>
+        <v>0.33056134</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.9686122</v>
+        <v>0.9672537</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>144</v>
@@ -3392,10 +3392,10 @@
         <v>54.0</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>1.1086793</v>
+        <v>1.1052068</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>0.2823276</v>
+        <v>0.2854369</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>1.0</v>
@@ -3418,13 +3418,13 @@
         <v>23.0</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1.2267545</v>
+        <v>1.2403471</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>0.1790393</v>
+        <v>0.20622568</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.69369686</v>
+        <v>0.6477604</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>144</v>
@@ -3441,16 +3441,16 @@
         <v>135</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>1.2662754</v>
+        <v>1.2568125</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>0.1446541</v>
+        <v>0.14437367</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>0.64459866</v>
+        <v>0.6748168</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>144</v>
@@ -3467,16 +3467,16 @@
         <v>136</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>1.2894257</v>
+        <v>1.2835793</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>0.13235295</v>
+        <v>0.1371308</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.6547262</v>
+        <v>0.6739296</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>144</v>
@@ -3493,16 +3493,16 @@
         <v>137</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>1.2977746</v>
+        <v>1.3002515</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>0.15208334</v>
+        <v>0.15189873</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>0.72989655</v>
+        <v>0.71794623</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>144</v>
@@ -3519,16 +3519,16 @@
         <v>138</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>1.3361156</v>
+        <v>1.3132459</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>0.12650603</v>
+        <v>0.15031315</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.70128864</v>
+        <v>0.8049125</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>144</v>
@@ -3548,13 +3548,13 @@
         <v>19.0</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>1.380271</v>
+        <v>1.3164427</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>0.121475056</v>
+        <v>0.110403396</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.68688446</v>
+        <v>0.98824334</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>144</v>
@@ -3574,13 +3574,13 @@
         <v>16.0</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>1.4421707</v>
+        <v>1.4498874</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>0.09375</v>
+        <v>0.059917357</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>0.61691904</v>
+        <v>0.5781089</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>144</v>
@@ -3600,13 +3600,13 @@
         <v>50.0</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>1.606225</v>
+        <v>1.5512307</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>0.00998004</v>
+        <v>0.010224949</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.26635063</v>
+        <v>0.41313332</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>144</v>
@@ -3626,13 +3626,13 @@
         <v>42.0</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>1.7640629</v>
+        <v>1.7493397</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>0.0020661156</v>
+        <v>0.0019880715</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>0.10519648</v>
+        <v>0.12319713</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>144</v>
@@ -3697,7 +3697,7 @@
         <v>176.0</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>-2.7178981</v>
+        <v>-2.7650924</v>
       </c>
       <c r="F2" s="14" t="n">
         <v>0.0</v>
@@ -3723,7 +3723,7 @@
         <v>55.0</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>-2.3479283</v>
+        <v>-2.3299053</v>
       </c>
       <c r="F3" s="14" t="n">
         <v>0.0</v>
@@ -3749,7 +3749,7 @@
         <v>193.0</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-2.133747</v>
+        <v>-2.1594253</v>
       </c>
       <c r="F4" s="14" t="n">
         <v>0.0</v>
@@ -3775,7 +3775,7 @@
         <v>192.0</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-2.0816936</v>
+        <v>-2.0838184</v>
       </c>
       <c r="F5" s="14" t="n">
         <v>0.0</v>
@@ -3801,13 +3801,13 @@
         <v>187.0</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-1.9744904</v>
+        <v>-2.0008597</v>
       </c>
       <c r="F6" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>1.3846155E-4</v>
+        <v>2.117647E-4</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>143</v>
@@ -3827,13 +3827,13 @@
         <v>94.0</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-1.9204137</v>
+        <v>-1.8897718</v>
       </c>
       <c r="F7" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>1.15384624E-4</v>
+        <v>3.128342E-4</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>143</v>
@@ -3853,13 +3853,13 @@
         <v>142.0</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.7581326</v>
+        <v>-1.74883</v>
       </c>
       <c r="F8" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>9.600363E-4</v>
+        <v>0.0014426151</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>143</v>
@@ -3879,13 +3879,13 @@
         <v>195.0</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-1.6265662</v>
+        <v>-1.6385992</v>
       </c>
       <c r="F9" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.0047211153</v>
+        <v>0.0043838555</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>143</v>
@@ -3905,13 +3905,13 @@
         <v>193.0</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>-1.5509363</v>
+        <v>-1.5510583</v>
       </c>
       <c r="F10" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.009437902</v>
+        <v>0.010108595</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>143</v>
@@ -3931,13 +3931,13 @@
         <v>187.0</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>-1.3848196</v>
+        <v>-1.3933716</v>
       </c>
       <c r="F11" s="14" t="n">
-        <v>0.0019493178</v>
+        <v>0.008247423</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>0.04554585</v>
+        <v>0.042912014</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>143</v>
@@ -3957,13 +3957,13 @@
         <v>191.0</v>
       </c>
       <c r="E12" s="13" t="n">
-        <v>-1.3576977</v>
+        <v>-1.3476152</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>0.0116054155</v>
+        <v>0.018329939</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>0.053547446</v>
+        <v>0.05873092</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>143</v>
@@ -3983,13 +3983,13 @@
         <v>195.0</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>-1.327616</v>
+        <v>-1.3322892</v>
       </c>
       <c r="F13" s="14" t="n">
-        <v>0.027667984</v>
+        <v>0.02020202</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>0.06429284</v>
+        <v>0.06038376</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>143</v>
@@ -4009,13 +4009,13 @@
         <v>102.0</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>-1.1947709</v>
+        <v>-1.2063023</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>0.12623274</v>
+        <v>0.14671814</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>0.1777083</v>
+        <v>0.1666959</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>143</v>
@@ -4035,13 +4035,13 @@
         <v>126.0</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>-1.1146733</v>
+        <v>-1.1147758</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>0.21900827</v>
+        <v>0.2556701</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>0.29068384</v>
+        <v>0.29480812</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>143</v>
@@ -4061,13 +4061,13 @@
         <v>46.0</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>-1.0358195</v>
+        <v>-1.036861</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>0.40562248</v>
+        <v>0.40433925</v>
       </c>
       <c r="G16" s="15" t="n">
-        <v>0.4427257</v>
+        <v>0.43627104</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>143</v>
@@ -4087,13 +4087,13 @@
         <v>41.0</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>-0.9094603</v>
+        <v>-0.9206256</v>
       </c>
       <c r="F17" s="14" t="n">
-        <v>0.6148936</v>
+        <v>0.6119691</v>
       </c>
       <c r="G17" s="15" t="n">
-        <v>0.76583725</v>
+        <v>0.73360145</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>143</v>
@@ -4113,13 +4113,13 @@
         <v>109.0</v>
       </c>
       <c r="E18" s="13" t="n">
-        <v>-0.84509957</v>
+        <v>-0.8626287</v>
       </c>
       <c r="F18" s="14" t="n">
-        <v>0.81135905</v>
+        <v>0.798419</v>
       </c>
       <c r="G18" s="15" t="n">
-        <v>0.87823945</v>
+        <v>0.8420888</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>143</v>
@@ -4139,13 +4139,13 @@
         <v>34.0</v>
       </c>
       <c r="E19" s="13" t="n">
-        <v>-0.67956305</v>
+        <v>-0.6935825</v>
       </c>
       <c r="F19" s="14" t="n">
-        <v>0.9233717</v>
+        <v>0.9075786</v>
       </c>
       <c r="G19" s="15" t="n">
-        <v>0.98647404</v>
+        <v>0.98161745</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>143</v>
@@ -4165,13 +4165,13 @@
         <v>174.0</v>
       </c>
       <c r="E20" s="13" t="n">
-        <v>0.8711781</v>
+        <v>0.8550779</v>
       </c>
       <c r="F20" s="14" t="n">
-        <v>0.79761904</v>
+        <v>0.8339921</v>
       </c>
       <c r="G20" s="15" t="n">
-        <v>0.7665882</v>
+        <v>0.79672194</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>144</v>
@@ -4191,13 +4191,13 @@
         <v>84.0</v>
       </c>
       <c r="E21" s="13" t="n">
-        <v>0.97259164</v>
+        <v>0.97279197</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>0.50612247</v>
+        <v>0.5058594</v>
       </c>
       <c r="G21" s="15" t="n">
-        <v>0.52543366</v>
+        <v>0.522652</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>144</v>
@@ -4217,13 +4217,13 @@
         <v>106.0</v>
       </c>
       <c r="E22" s="13" t="n">
-        <v>0.9821512</v>
+        <v>1.0024931</v>
       </c>
       <c r="F22" s="14" t="n">
-        <v>0.47619048</v>
+        <v>0.44693878</v>
       </c>
       <c r="G22" s="15" t="n">
-        <v>0.51858944</v>
+        <v>0.46571255</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>144</v>
@@ -4243,13 +4243,13 @@
         <v>102.0</v>
       </c>
       <c r="E23" s="13" t="n">
-        <v>1.0053276</v>
+        <v>1.0143698</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>0.43469387</v>
+        <v>0.3836978</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>0.4805324</v>
+        <v>0.45538646</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>144</v>
@@ -4269,13 +4269,13 @@
         <v>150.0</v>
       </c>
       <c r="E24" s="13" t="n">
-        <v>1.0312492</v>
+        <v>1.0311079</v>
       </c>
       <c r="F24" s="14" t="n">
-        <v>0.374502</v>
+        <v>0.37649402</v>
       </c>
       <c r="G24" s="15" t="n">
-        <v>0.4336102</v>
+        <v>0.43217188</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>144</v>
@@ -4295,13 +4295,13 @@
         <v>156.0</v>
       </c>
       <c r="E25" s="13" t="n">
-        <v>1.0530186</v>
+        <v>1.0418773</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>0.328125</v>
+        <v>0.3528265</v>
       </c>
       <c r="G25" s="15" t="n">
-        <v>0.39719224</v>
+        <v>0.42270455</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>144</v>
@@ -4321,13 +4321,13 @@
         <v>188.0</v>
       </c>
       <c r="E26" s="13" t="n">
-        <v>1.1185983</v>
+        <v>1.1137584</v>
       </c>
       <c r="F26" s="14" t="n">
-        <v>0.20120725</v>
+        <v>0.2310757</v>
       </c>
       <c r="G26" s="15" t="n">
-        <v>0.27991787</v>
+        <v>0.29105127</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>144</v>
@@ -4347,13 +4347,13 @@
         <v>196.0</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>1.2225559</v>
+        <v>1.213867</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>0.07736944</v>
+        <v>0.097928435</v>
       </c>
       <c r="G27" s="15" t="n">
-        <v>0.14350508</v>
+        <v>0.15332864</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>144</v>
@@ -4373,13 +4373,13 @@
         <v>95.0</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>1.2599016</v>
+        <v>1.2628001</v>
       </c>
       <c r="F28" s="14" t="n">
-        <v>0.09311741</v>
+        <v>0.09638554</v>
       </c>
       <c r="G28" s="15" t="n">
-        <v>0.11105725</v>
+        <v>0.1105191</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>144</v>
@@ -4399,13 +4399,13 @@
         <v>187.0</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>1.2925613</v>
+        <v>1.3171006</v>
       </c>
       <c r="F29" s="14" t="n">
-        <v>0.048828125</v>
+        <v>0.030800821</v>
       </c>
       <c r="G29" s="15" t="n">
-        <v>0.089686505</v>
+        <v>0.07620245</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>144</v>
@@ -4425,13 +4425,13 @@
         <v>199.0</v>
       </c>
       <c r="E30" s="13" t="n">
-        <v>1.394997</v>
+        <v>1.4084055</v>
       </c>
       <c r="F30" s="14" t="n">
-        <v>0.015655577</v>
+        <v>0.009861933</v>
       </c>
       <c r="G30" s="15" t="n">
-        <v>0.038239196</v>
+        <v>0.0349974</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>144</v>
@@ -4448,16 +4448,16 @@
         <v>225</v>
       </c>
       <c r="D31" s="12" t="n">
-        <v>194.0</v>
+        <v>188.0</v>
       </c>
       <c r="E31" s="13" t="n">
-        <v>1.5372821</v>
+        <v>1.5351995</v>
       </c>
       <c r="F31" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>0.009895839</v>
+        <v>0.009955163</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>144</v>
@@ -4474,16 +4474,16 @@
         <v>226</v>
       </c>
       <c r="D32" s="12" t="n">
-        <v>188.0</v>
+        <v>194.0</v>
       </c>
       <c r="E32" s="13" t="n">
-        <v>1.5373102</v>
+        <v>1.5416464</v>
       </c>
       <c r="F32" s="14" t="n">
-        <v>0.0</v>
+        <v>0.0019880715</v>
       </c>
       <c r="G32" s="15" t="n">
-        <v>0.01039063</v>
+        <v>0.009912379</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>144</v>
@@ -4503,13 +4503,13 @@
         <v>42.0</v>
       </c>
       <c r="E33" s="13" t="n">
-        <v>1.5669177</v>
+        <v>1.552489</v>
       </c>
       <c r="F33" s="14" t="n">
-        <v>0.021276595</v>
+        <v>0.019607844</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>0.008455898</v>
+        <v>0.009429133</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>144</v>
@@ -4526,16 +4526,16 @@
         <v>228</v>
       </c>
       <c r="D34" s="12" t="n">
-        <v>93.0</v>
+        <v>35.0</v>
       </c>
       <c r="E34" s="13" t="n">
-        <v>1.5897021</v>
+        <v>1.6014122</v>
       </c>
       <c r="F34" s="14" t="n">
-        <v>0.0040241447</v>
+        <v>0.00984252</v>
       </c>
       <c r="G34" s="15" t="n">
-        <v>0.0069182133</v>
+        <v>0.0057015135</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>144</v>
@@ -4552,16 +4552,16 @@
         <v>229</v>
       </c>
       <c r="D35" s="12" t="n">
-        <v>35.0</v>
+        <v>189.0</v>
       </c>
       <c r="E35" s="13" t="n">
-        <v>1.6185033</v>
+        <v>1.6082075</v>
       </c>
       <c r="F35" s="14" t="n">
-        <v>0.02584493</v>
+        <v>0.0</v>
       </c>
       <c r="G35" s="15" t="n">
-        <v>0.0049198214</v>
+        <v>0.005167718</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>144</v>
@@ -4578,16 +4578,16 @@
         <v>230</v>
       </c>
       <c r="D36" s="12" t="n">
-        <v>189.0</v>
+        <v>93.0</v>
       </c>
       <c r="E36" s="13" t="n">
-        <v>1.6201711</v>
+        <v>1.611394</v>
       </c>
       <c r="F36" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G36" s="15" t="n">
-        <v>0.00514731</v>
+        <v>0.0052450295</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>144</v>
@@ -4607,13 +4607,13 @@
         <v>30.0</v>
       </c>
       <c r="E37" s="13" t="n">
-        <v>1.6328936</v>
+        <v>1.6235954</v>
       </c>
       <c r="F37" s="14" t="n">
-        <v>0.0061099795</v>
+        <v>0.012738854</v>
       </c>
       <c r="G37" s="15" t="n">
-        <v>0.004973029</v>
+        <v>0.0048066014</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>144</v>
@@ -4630,16 +4630,16 @@
         <v>232</v>
       </c>
       <c r="D38" s="12" t="n">
-        <v>156.0</v>
+        <v>34.0</v>
       </c>
       <c r="E38" s="13" t="n">
-        <v>1.760387</v>
+        <v>1.7448771</v>
       </c>
       <c r="F38" s="14" t="n">
-        <v>0.0</v>
+        <v>0.008281574</v>
       </c>
       <c r="G38" s="15" t="n">
-        <v>6.742781E-4</v>
+        <v>0.0011967161</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>144</v>
@@ -4656,16 +4656,16 @@
         <v>233</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>34.0</v>
+        <v>156.0</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>1.7647593</v>
+        <v>1.7758685</v>
       </c>
       <c r="F39" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" s="15" t="n">
-        <v>6.089295E-4</v>
+        <v>9.921181E-4</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>144</v>
@@ -4685,13 +4685,13 @@
         <v>193.0</v>
       </c>
       <c r="E40" s="13" t="n">
-        <v>1.8153169</v>
+        <v>1.8438895</v>
       </c>
       <c r="F40" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G40" s="15" t="n">
-        <v>3.3488733E-4</v>
+        <v>5.6061853E-4</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>144</v>
@@ -4711,13 +4711,13 @@
         <v>53.0</v>
       </c>
       <c r="E41" s="13" t="n">
-        <v>1.9427531</v>
+        <v>1.9429032</v>
       </c>
       <c r="F41" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" s="15" t="n">
-        <v>0.0</v>
+        <v>3.993823E-4</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>144</v>
@@ -4737,13 +4737,13 @@
         <v>190.0</v>
       </c>
       <c r="E42" s="13" t="n">
-        <v>1.98987</v>
+        <v>1.9934082</v>
       </c>
       <c r="F42" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G42" s="15" t="n">
-        <v>0.0</v>
+        <v>2.8693958E-4</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>144</v>
@@ -4763,13 +4763,13 @@
         <v>192.0</v>
       </c>
       <c r="E43" s="13" t="n">
-        <v>2.0162423</v>
+        <v>2.0188746</v>
       </c>
       <c r="F43" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>0.0</v>
+        <v>1.871345E-4</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>144</v>
@@ -4789,7 +4789,7 @@
         <v>69.0</v>
       </c>
       <c r="E44" s="13" t="n">
-        <v>2.1397858</v>
+        <v>2.114655</v>
       </c>
       <c r="F44" s="14" t="n">
         <v>0.0</v>
@@ -4815,7 +4815,7 @@
         <v>195.0</v>
       </c>
       <c r="E45" s="13" t="n">
-        <v>2.1453192</v>
+        <v>2.1468902</v>
       </c>
       <c r="F45" s="14" t="n">
         <v>0.0</v>
@@ -4841,7 +4841,7 @@
         <v>193.0</v>
       </c>
       <c r="E46" s="13" t="n">
-        <v>2.1533492</v>
+        <v>2.1474512</v>
       </c>
       <c r="F46" s="14" t="n">
         <v>0.0</v>
@@ -4867,7 +4867,7 @@
         <v>133.0</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>2.1881204</v>
+        <v>2.1975515</v>
       </c>
       <c r="F47" s="14" t="n">
         <v>0.0</v>
@@ -4893,7 +4893,7 @@
         <v>191.0</v>
       </c>
       <c r="E48" s="13" t="n">
-        <v>2.2756138</v>
+        <v>2.2607532</v>
       </c>
       <c r="F48" s="14" t="n">
         <v>0.0</v>
@@ -4919,7 +4919,7 @@
         <v>193.0</v>
       </c>
       <c r="E49" s="13" t="n">
-        <v>2.3580327</v>
+        <v>2.340674</v>
       </c>
       <c r="F49" s="14" t="n">
         <v>0.0</v>
@@ -4945,7 +4945,7 @@
         <v>142.0</v>
       </c>
       <c r="E50" s="13" t="n">
-        <v>2.5684502</v>
+        <v>2.550866</v>
       </c>
       <c r="F50" s="14" t="n">
         <v>0.0</v>
@@ -4971,7 +4971,7 @@
         <v>193.0</v>
       </c>
       <c r="E51" s="13" t="n">
-        <v>2.9737163</v>
+        <v>2.9458156</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0.0</v>
@@ -5042,7 +5042,7 @@
         <v>114.0</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-2.4319565</v>
+        <v>-2.4449444</v>
       </c>
       <c r="F2" s="23" t="n">
         <v>0.0</v>
@@ -5068,7 +5068,7 @@
         <v>81.0</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-2.2257187</v>
+        <v>-2.2224805</v>
       </c>
       <c r="F3" s="23" t="n">
         <v>0.0</v>
@@ -5091,10 +5091,10 @@
         <v>413</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>-2.093037</v>
+        <v>-2.0922506</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>0.0</v>
@@ -5117,10 +5117,10 @@
         <v>414</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>-2.0924633</v>
+        <v>-2.0583472</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>0.0</v>
@@ -5146,13 +5146,13 @@
         <v>51.0</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>-2.018296</v>
+        <v>-2.0088727</v>
       </c>
       <c r="F6" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>0.0</v>
+        <v>1.4999999E-4</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>143</v>
@@ -5169,16 +5169,16 @@
         <v>416</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>-1.8768672</v>
+        <v>-1.8950205</v>
       </c>
       <c r="F7" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" s="24" t="n">
-        <v>0.0016703915</v>
+        <v>0.0016119079</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>143</v>
@@ -5198,13 +5198,13 @@
         <v>98.0</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>-1.8667591</v>
+        <v>-1.8794785</v>
       </c>
       <c r="F8" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" s="24" t="n">
-        <v>0.0019687111</v>
+        <v>0.0021126943</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>143</v>
@@ -5221,16 +5221,16 @@
         <v>418</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>17.0</v>
+        <v>155.0</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>-1.8589542</v>
+        <v>-1.8534539</v>
       </c>
       <c r="F9" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" s="24" t="n">
-        <v>0.0021979888</v>
+        <v>0.0028688237</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>143</v>
@@ -5247,16 +5247,16 @@
         <v>419</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>155.0</v>
+        <v>85.0</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>-1.8512529</v>
+        <v>-1.83907</v>
       </c>
       <c r="F10" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" s="24" t="n">
-        <v>0.0020401874</v>
+        <v>0.0029544362</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>143</v>
@@ -5273,16 +5273,16 @@
         <v>420</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>-1.8230538</v>
+        <v>-1.8215653</v>
       </c>
       <c r="F11" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G11" s="24" t="n">
-        <v>0.0030869097</v>
+        <v>0.0032408217</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>143</v>
@@ -5302,13 +5302,13 @@
         <v>42.0</v>
       </c>
       <c r="E12" s="22" t="n">
-        <v>-1.7531475</v>
+        <v>-1.7174828</v>
       </c>
       <c r="F12" s="23" t="n">
-        <v>0.0019493178</v>
+        <v>0.0038095238</v>
       </c>
       <c r="G12" s="24" t="n">
-        <v>0.009764619</v>
+        <v>0.014863433</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>143</v>
@@ -5328,13 +5328,13 @@
         <v>68.0</v>
       </c>
       <c r="E13" s="22" t="n">
-        <v>-1.707531</v>
+        <v>-1.7128243</v>
       </c>
       <c r="F13" s="23" t="n">
-        <v>0.0</v>
+        <v>0.0018691589</v>
       </c>
       <c r="G13" s="24" t="n">
-        <v>0.017490333</v>
+        <v>0.014437561</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>143</v>
@@ -5354,13 +5354,13 @@
         <v>87.0</v>
       </c>
       <c r="E14" s="22" t="n">
-        <v>-1.7034009</v>
+        <v>-1.6746395</v>
       </c>
       <c r="F14" s="23" t="n">
-        <v>0.0019011407</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="24" t="n">
-        <v>0.017064555</v>
+        <v>0.021841515</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>143</v>
@@ -5380,13 +5380,13 @@
         <v>21.0</v>
       </c>
       <c r="E15" s="22" t="n">
-        <v>-1.6207045</v>
+        <v>-1.6728154</v>
       </c>
       <c r="F15" s="23" t="n">
-        <v>0.016304348</v>
+        <v>0.0038986355</v>
       </c>
       <c r="G15" s="24" t="n">
-        <v>0.03702776</v>
+        <v>0.02059384</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>143</v>
@@ -5406,13 +5406,13 @@
         <v>16.0</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>-1.5763619</v>
+        <v>-1.5597868</v>
       </c>
       <c r="F16" s="23" t="n">
-        <v>0.019305019</v>
+        <v>0.028571429</v>
       </c>
       <c r="G16" s="24" t="n">
-        <v>0.055041753</v>
+        <v>0.06386457</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>143</v>
@@ -5432,13 +5432,13 @@
         <v>60.0</v>
       </c>
       <c r="E17" s="22" t="n">
-        <v>-1.5619768</v>
+        <v>-1.5546721</v>
       </c>
       <c r="F17" s="23" t="n">
-        <v>0.011650485</v>
+        <v>0.008264462</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>0.060902607</v>
+        <v>0.06259896</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>143</v>
@@ -5458,13 +5458,13 @@
         <v>67.0</v>
       </c>
       <c r="E18" s="22" t="n">
-        <v>-1.545884</v>
+        <v>-1.5423542</v>
       </c>
       <c r="F18" s="23" t="n">
-        <v>0.01417004</v>
+        <v>0.008179959</v>
       </c>
       <c r="G18" s="24" t="n">
-        <v>0.065994136</v>
+        <v>0.06597893</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>143</v>
@@ -5481,16 +5481,16 @@
         <v>428</v>
       </c>
       <c r="D19" s="21" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>-1.5262479</v>
+        <v>-1.4999298</v>
       </c>
       <c r="F19" s="23" t="n">
-        <v>0.025490196</v>
+        <v>0.03307393</v>
       </c>
       <c r="G19" s="24" t="n">
-        <v>0.073631816</v>
+        <v>0.091281354</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>143</v>
@@ -5507,16 +5507,16 @@
         <v>429</v>
       </c>
       <c r="D20" s="21" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>-1.4692814</v>
+        <v>-1.4944376</v>
       </c>
       <c r="F20" s="23" t="n">
-        <v>0.049079753</v>
+        <v>0.023210831</v>
       </c>
       <c r="G20" s="24" t="n">
-        <v>0.11071114</v>
+        <v>0.090150006</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>143</v>
@@ -5533,16 +5533,16 @@
         <v>430</v>
       </c>
       <c r="D21" s="21" t="n">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
       <c r="E21" s="22" t="n">
-        <v>-1.4404658</v>
+        <v>-1.4803958</v>
       </c>
       <c r="F21" s="23" t="n">
-        <v>0.03508772</v>
+        <v>0.036363635</v>
       </c>
       <c r="G21" s="24" t="n">
-        <v>0.13076444</v>
+        <v>0.09570359</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>143</v>
@@ -5562,13 +5562,13 @@
         <v>60.0</v>
       </c>
       <c r="E22" s="22" t="n">
-        <v>-1.4366639</v>
+        <v>-1.4282786</v>
       </c>
       <c r="F22" s="23" t="n">
-        <v>0.033898305</v>
+        <v>0.028571429</v>
       </c>
       <c r="G22" s="24" t="n">
-        <v>0.12820855</v>
+        <v>0.13564177</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>143</v>
@@ -5588,13 +5588,13 @@
         <v>36.0</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>-1.3971092</v>
+        <v>-1.4072646</v>
       </c>
       <c r="F23" s="23" t="n">
-        <v>0.064327486</v>
+        <v>0.06212425</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>0.16042489</v>
+        <v>0.15019093</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>143</v>
@@ -5614,13 +5614,13 @@
         <v>38.0</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>-1.3693093</v>
+        <v>-1.3392633</v>
       </c>
       <c r="F24" s="23" t="n">
-        <v>0.07692308</v>
+        <v>0.08429119</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.18729614</v>
+        <v>0.22851901</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>143</v>
@@ -5637,16 +5637,16 @@
         <v>434</v>
       </c>
       <c r="D25" s="21" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="E25" s="22" t="n">
-        <v>-1.3474025</v>
+        <v>-1.3349992</v>
       </c>
       <c r="F25" s="23" t="n">
-        <v>0.08208955</v>
+        <v>0.09351145</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.20640515</v>
+        <v>0.22510056</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>143</v>
@@ -5666,13 +5666,13 @@
         <v>15.0</v>
       </c>
       <c r="E26" s="22" t="n">
-        <v>-1.3379647</v>
+        <v>-1.331357</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>0.128</v>
+        <v>0.13018867</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.21008006</v>
+        <v>0.22035222</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>143</v>
@@ -5692,13 +5692,13 @@
         <v>61.0</v>
       </c>
       <c r="E27" s="22" t="n">
-        <v>-1.3361125</v>
+        <v>-1.3311684</v>
       </c>
       <c r="F27" s="23" t="n">
-        <v>0.063097514</v>
+        <v>0.083179295</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.20436685</v>
+        <v>0.2120085</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>143</v>
@@ -5715,16 +5715,16 @@
         <v>437</v>
       </c>
       <c r="D28" s="21" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>-1.3272351</v>
+        <v>-1.3248246</v>
       </c>
       <c r="F28" s="23" t="n">
-        <v>0.10019268</v>
+        <v>0.089147285</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.2089371</v>
+        <v>0.21175525</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>143</v>
@@ -5744,13 +5744,13 @@
         <v>32.0</v>
       </c>
       <c r="E29" s="22" t="n">
-        <v>-1.322781</v>
+        <v>-1.3176427</v>
       </c>
       <c r="F29" s="23" t="n">
-        <v>0.10242086</v>
+        <v>0.09848485</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.20715564</v>
+        <v>0.2123242</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>143</v>
@@ -5770,13 +5770,13 @@
         <v>17.0</v>
       </c>
       <c r="E30" s="22" t="n">
-        <v>-1.2521889</v>
+        <v>-1.2482716</v>
       </c>
       <c r="F30" s="23" t="n">
-        <v>0.18076923</v>
+        <v>0.17537314</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.30410436</v>
+        <v>0.30724636</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>143</v>
@@ -5793,16 +5793,16 @@
         <v>440</v>
       </c>
       <c r="D31" s="21" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
       <c r="E31" s="22" t="n">
-        <v>-1.237625</v>
+        <v>-1.227237</v>
       </c>
       <c r="F31" s="23" t="n">
-        <v>0.16904277</v>
+        <v>0.14256619</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.32058185</v>
+        <v>0.33326364</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>143</v>
@@ -5819,16 +5819,16 @@
         <v>441</v>
       </c>
       <c r="D32" s="21" t="n">
-        <v>65.0</v>
+        <v>48.0</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>-1.2105322</v>
+        <v>-1.2228599</v>
       </c>
       <c r="F32" s="23" t="n">
-        <v>0.13114753</v>
+        <v>0.18046708</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.35692522</v>
+        <v>0.33036277</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>143</v>
@@ -5848,13 +5848,13 @@
         <v>29.0</v>
       </c>
       <c r="E33" s="22" t="n">
-        <v>-1.1651906</v>
+        <v>-1.2004036</v>
       </c>
       <c r="F33" s="23" t="n">
-        <v>0.27021697</v>
+        <v>0.19001919</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.43451506</v>
+        <v>0.36138377</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>143</v>
@@ -5874,13 +5874,13 @@
         <v>174.0</v>
       </c>
       <c r="E34" s="22" t="n">
-        <v>-1.1614858</v>
+        <v>-1.1808494</v>
       </c>
       <c r="F34" s="23" t="n">
-        <v>0.13894737</v>
+        <v>0.11608961</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>0.43003154</v>
+        <v>0.38766283</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>143</v>
@@ -5897,16 +5897,16 @@
         <v>444</v>
       </c>
       <c r="D35" s="21" t="n">
-        <v>34.0</v>
+        <v>24.0</v>
       </c>
       <c r="E35" s="22" t="n">
-        <v>-1.1427448</v>
+        <v>-1.1510823</v>
       </c>
       <c r="F35" s="23" t="n">
-        <v>0.27938342</v>
+        <v>0.2843327</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>0.45753774</v>
+        <v>0.4364651</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>143</v>
@@ -5923,16 +5923,16 @@
         <v>445</v>
       </c>
       <c r="D36" s="21" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E36" s="22" t="n">
-        <v>-1.1386439</v>
+        <v>-1.1342753</v>
       </c>
       <c r="F36" s="23" t="n">
-        <v>0.26768643</v>
+        <v>0.24166666</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>0.45339158</v>
+        <v>0.46000263</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>143</v>
@@ -5949,16 +5949,16 @@
         <v>446</v>
       </c>
       <c r="D37" s="21" t="n">
-        <v>62.0</v>
+        <v>37.0</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>-1.1347495</v>
+        <v>-1.1297733</v>
       </c>
       <c r="F37" s="23" t="n">
-        <v>0.23925234</v>
+        <v>0.2990291</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>0.44889304</v>
+        <v>0.457055</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>143</v>
@@ -5975,16 +5975,16 @@
         <v>447</v>
       </c>
       <c r="D38" s="21" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>-1.1303155</v>
+        <v>-1.1240237</v>
       </c>
       <c r="F38" s="23" t="n">
-        <v>0.29827917</v>
+        <v>0.29856852</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>0.4451544</v>
+        <v>0.45701414</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>143</v>
@@ -6001,16 +6001,16 @@
         <v>448</v>
       </c>
       <c r="D39" s="21" t="n">
-        <v>43.0</v>
+        <v>66.0</v>
       </c>
       <c r="E39" s="22" t="n">
-        <v>-1.1282927</v>
+        <v>-1.1142617</v>
       </c>
       <c r="F39" s="23" t="n">
-        <v>0.27383366</v>
+        <v>0.25536063</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.43724263</v>
+        <v>0.46570122</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>143</v>
@@ -6030,13 +6030,13 @@
         <v>33.0</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>-1.1128824</v>
+        <v>-1.1118084</v>
       </c>
       <c r="F40" s="23" t="n">
-        <v>0.29961833</v>
+        <v>0.30038023</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.45840985</v>
+        <v>0.45867708</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>143</v>
@@ -6053,16 +6053,16 @@
         <v>450</v>
       </c>
       <c r="D41" s="21" t="n">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>-1.097846</v>
+        <v>-1.1041645</v>
       </c>
       <c r="F41" s="23" t="n">
-        <v>0.32175502</v>
+        <v>0.3126177</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.47863215</v>
+        <v>0.46311635</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>143</v>
@@ -6079,16 +6079,16 @@
         <v>451</v>
       </c>
       <c r="D42" s="21" t="n">
-        <v>66.0</v>
+        <v>31.0</v>
       </c>
       <c r="E42" s="22" t="n">
-        <v>-1.0916306</v>
+        <v>-1.0967767</v>
       </c>
       <c r="F42" s="23" t="n">
-        <v>0.30961537</v>
+        <v>0.32695985</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>0.48000515</v>
+        <v>0.46810162</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>143</v>
@@ -6108,13 +6108,13 @@
         <v>36.0</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>-1.0855778</v>
+        <v>-1.0893025</v>
       </c>
       <c r="F43" s="23" t="n">
-        <v>0.35328186</v>
+        <v>0.33009708</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>0.48174924</v>
+        <v>0.4722365</v>
       </c>
       <c r="H43" s="25" t="s">
         <v>143</v>
@@ -6134,13 +6134,13 @@
         <v>46.0</v>
       </c>
       <c r="E44" s="22" t="n">
-        <v>-1.0782733</v>
+        <v>-1.0776944</v>
       </c>
       <c r="F44" s="23" t="n">
-        <v>0.33652008</v>
+        <v>0.33061224</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.48625526</v>
+        <v>0.48603255</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>143</v>
@@ -6160,13 +6160,13 @@
         <v>97.0</v>
       </c>
       <c r="E45" s="22" t="n">
-        <v>-1.0738343</v>
+        <v>-1.0759671</v>
       </c>
       <c r="F45" s="23" t="n">
-        <v>0.27218935</v>
+        <v>0.32806325</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>0.48380667</v>
+        <v>0.4780443</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>143</v>
@@ -6183,16 +6183,16 @@
         <v>455</v>
       </c>
       <c r="D46" s="21" t="n">
-        <v>15.0</v>
+        <v>80.0</v>
       </c>
       <c r="E46" s="22" t="n">
-        <v>-1.0478675</v>
+        <v>-1.0490077</v>
       </c>
       <c r="F46" s="23" t="n">
-        <v>0.4126394</v>
+        <v>0.35440612</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>0.5281431</v>
+        <v>0.5232534</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>143</v>
@@ -6209,16 +6209,16 @@
         <v>456</v>
       </c>
       <c r="D47" s="21" t="n">
-        <v>80.0</v>
+        <v>15.0</v>
       </c>
       <c r="E47" s="22" t="n">
-        <v>-1.0460287</v>
+        <v>-1.0474896</v>
       </c>
       <c r="F47" s="23" t="n">
-        <v>0.36363637</v>
+        <v>0.40445268</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>0.52026445</v>
+        <v>0.5152588</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>143</v>
@@ -6235,16 +6235,16 @@
         <v>457</v>
       </c>
       <c r="D48" s="21" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="E48" s="22" t="n">
-        <v>-0.9979519</v>
+        <v>-0.99359185</v>
       </c>
       <c r="F48" s="23" t="n">
-        <v>0.43784785</v>
+        <v>0.47826087</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>0.6121737</v>
+        <v>0.6236264</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>143</v>
@@ -6261,16 +6261,16 @@
         <v>458</v>
       </c>
       <c r="D49" s="21" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>-0.97940296</v>
+        <v>-0.9907643</v>
       </c>
       <c r="F49" s="23" t="n">
-        <v>0.50625</v>
+        <v>0.4765625</v>
       </c>
       <c r="G49" s="24" t="n">
-        <v>0.64193374</v>
+        <v>0.61716855</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>143</v>
@@ -6287,16 +6287,16 @@
         <v>459</v>
       </c>
       <c r="D50" s="21" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>-0.9790707</v>
+        <v>-0.9710406</v>
       </c>
       <c r="F50" s="23" t="n">
-        <v>0.4830827</v>
+        <v>0.51072127</v>
       </c>
       <c r="G50" s="24" t="n">
-        <v>0.62965983</v>
+        <v>0.64855236</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>143</v>
@@ -6313,16 +6313,16 @@
         <v>460</v>
       </c>
       <c r="D51" s="21" t="n">
-        <v>44.0</v>
+        <v>29.0</v>
       </c>
       <c r="E51" s="22" t="n">
-        <v>-0.9364656</v>
+        <v>-0.92993057</v>
       </c>
       <c r="F51" s="23" t="n">
-        <v>0.5561905</v>
+        <v>0.57114226</v>
       </c>
       <c r="G51" s="24" t="n">
-        <v>0.7164117</v>
+        <v>0.73127913</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>143</v>
@@ -6339,16 +6339,16 @@
         <v>461</v>
       </c>
       <c r="D52" s="21" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>-0.9357433</v>
+        <v>-0.9209845</v>
       </c>
       <c r="F52" s="23" t="n">
-        <v>0.5641509</v>
+        <v>0.5711538</v>
       </c>
       <c r="G52" s="24" t="n">
-        <v>0.70421195</v>
+        <v>0.73845524</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>143</v>
@@ -6365,16 +6365,16 @@
         <v>462</v>
       </c>
       <c r="D53" s="21" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="E53" s="22" t="n">
-        <v>-0.9325787</v>
+        <v>-0.91911817</v>
       </c>
       <c r="F53" s="23" t="n">
-        <v>0.5734127</v>
+        <v>0.5912548</v>
       </c>
       <c r="G53" s="24" t="n">
-        <v>0.6978478</v>
+        <v>0.728648</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>143</v>
@@ -6394,13 +6394,13 @@
         <v>59.0</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>-0.90233344</v>
+        <v>-0.90519</v>
       </c>
       <c r="F54" s="23" t="n">
-        <v>0.62355214</v>
+        <v>0.61494255</v>
       </c>
       <c r="G54" s="24" t="n">
-        <v>0.7548023</v>
+        <v>0.74650544</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>143</v>
@@ -6420,13 +6420,13 @@
         <v>164.0</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>-0.83826905</v>
+        <v>-0.8425875</v>
       </c>
       <c r="F55" s="23" t="n">
-        <v>0.8950495</v>
+        <v>0.87829614</v>
       </c>
       <c r="G55" s="24" t="n">
-        <v>0.8779967</v>
+        <v>0.87000453</v>
       </c>
       <c r="H55" s="25" t="s">
         <v>143</v>
@@ -6446,13 +6446,13 @@
         <v>91.0</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>-0.81028664</v>
+        <v>-0.818707</v>
       </c>
       <c r="F56" s="23" t="n">
-        <v>0.84942085</v>
+        <v>0.84479374</v>
       </c>
       <c r="G56" s="24" t="n">
-        <v>0.91430414</v>
+        <v>0.9014582</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>143</v>
@@ -6472,13 +6472,13 @@
         <v>91.0</v>
       </c>
       <c r="E57" s="22" t="n">
-        <v>-0.7989846</v>
+        <v>-0.79613054</v>
       </c>
       <c r="F57" s="23" t="n">
-        <v>0.86625516</v>
+        <v>0.88785046</v>
       </c>
       <c r="G57" s="24" t="n">
-        <v>0.91711026</v>
+        <v>0.92531437</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>143</v>
@@ -6498,13 +6498,13 @@
         <v>19.0</v>
       </c>
       <c r="E58" s="22" t="n">
-        <v>-0.7784285</v>
+        <v>-0.7688616</v>
       </c>
       <c r="F58" s="23" t="n">
-        <v>0.7831094</v>
+        <v>0.8096154</v>
       </c>
       <c r="G58" s="24" t="n">
-        <v>0.93381625</v>
+        <v>0.9498456</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>143</v>
@@ -6521,16 +6521,16 @@
         <v>468</v>
       </c>
       <c r="D59" s="21" t="n">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="E59" s="22" t="n">
-        <v>-0.75880665</v>
+        <v>-0.7660463</v>
       </c>
       <c r="F59" s="23" t="n">
-        <v>0.84644914</v>
+        <v>0.81925344</v>
       </c>
       <c r="G59" s="24" t="n">
-        <v>0.9461</v>
+        <v>0.9373071</v>
       </c>
       <c r="H59" s="25" t="s">
         <v>143</v>
@@ -6547,16 +6547,16 @@
         <v>469</v>
       </c>
       <c r="D60" s="21" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="E60" s="22" t="n">
-        <v>-0.75271136</v>
+        <v>-0.75339377</v>
       </c>
       <c r="F60" s="23" t="n">
-        <v>0.81128407</v>
+        <v>0.84555984</v>
       </c>
       <c r="G60" s="24" t="n">
-        <v>0.93756086</v>
+        <v>0.93730783</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>143</v>
@@ -6576,13 +6576,13 @@
         <v>16.0</v>
       </c>
       <c r="E61" s="22" t="n">
-        <v>-0.7403057</v>
+        <v>-0.75206745</v>
       </c>
       <c r="F61" s="23" t="n">
-        <v>0.8048327</v>
+        <v>0.8186916</v>
       </c>
       <c r="G61" s="24" t="n">
-        <v>0.936303</v>
+        <v>0.92331696</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>143</v>
@@ -6602,13 +6602,13 @@
         <v>18.0</v>
       </c>
       <c r="E62" s="22" t="n">
-        <v>-0.6702905</v>
+        <v>-0.68450326</v>
       </c>
       <c r="F62" s="23" t="n">
-        <v>0.8844697</v>
+        <v>0.8784314</v>
       </c>
       <c r="G62" s="24" t="n">
-        <v>0.98104596</v>
+        <v>0.97173375</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>143</v>
@@ -6628,10 +6628,10 @@
         <v>31.0</v>
       </c>
       <c r="E63" s="22" t="n">
-        <v>-0.46571395</v>
+        <v>-0.46512285</v>
       </c>
       <c r="F63" s="23" t="n">
-        <v>0.9980507</v>
+        <v>0.9981238</v>
       </c>
       <c r="G63" s="24" t="n">
         <v>1.0</v>
@@ -6654,13 +6654,13 @@
         <v>25.0</v>
       </c>
       <c r="E64" s="22" t="n">
-        <v>-0.39072907</v>
+        <v>-0.39396253</v>
       </c>
       <c r="F64" s="23" t="n">
-        <v>0.9944751</v>
+        <v>1.0</v>
       </c>
       <c r="G64" s="24" t="n">
-        <v>0.9997236</v>
+        <v>0.9996617</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>143</v>
@@ -6680,13 +6680,13 @@
         <v>20.0</v>
       </c>
       <c r="E65" s="22" t="n">
-        <v>0.59391683</v>
+        <v>0.6076501</v>
       </c>
       <c r="F65" s="23" t="n">
-        <v>0.96732026</v>
+        <v>0.93473685</v>
       </c>
       <c r="G65" s="24" t="n">
-        <v>0.9805804</v>
+        <v>0.9761349</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>144</v>
@@ -6703,16 +6703,16 @@
         <v>475</v>
       </c>
       <c r="D66" s="21" t="n">
-        <v>15.0</v>
+        <v>59.0</v>
       </c>
       <c r="E66" s="22" t="n">
-        <v>0.67197144</v>
+        <v>0.69195384</v>
       </c>
       <c r="F66" s="23" t="n">
-        <v>0.8813906</v>
+        <v>0.9635627</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>0.95643693</v>
+        <v>0.94169044</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>144</v>
@@ -6729,16 +6729,16 @@
         <v>476</v>
       </c>
       <c r="D67" s="21" t="n">
-        <v>59.0</v>
+        <v>22.0</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>0.7006072</v>
+        <v>0.6989305</v>
       </c>
       <c r="F67" s="23" t="n">
-        <v>0.948</v>
+        <v>0.87628865</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>0.94516605</v>
+        <v>0.9456376</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>144</v>
@@ -6755,16 +6755,16 @@
         <v>477</v>
       </c>
       <c r="D68" s="21" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E68" s="22" t="n">
-        <v>0.7021929</v>
+        <v>0.699965</v>
       </c>
       <c r="F68" s="23" t="n">
-        <v>0.8412371</v>
+        <v>0.8551308</v>
       </c>
       <c r="G68" s="24" t="n">
-        <v>0.9533089</v>
+        <v>0.9546947</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>144</v>
@@ -6781,16 +6781,16 @@
         <v>478</v>
       </c>
       <c r="D69" s="21" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="E69" s="22" t="n">
-        <v>0.7169478</v>
+        <v>0.7075462</v>
       </c>
       <c r="F69" s="23" t="n">
-        <v>0.8553459</v>
+        <v>0.852</v>
       </c>
       <c r="G69" s="24" t="n">
-        <v>0.94934434</v>
+        <v>0.9580161</v>
       </c>
       <c r="H69" s="25" t="s">
         <v>144</v>
@@ -6810,13 +6810,13 @@
         <v>23.0</v>
       </c>
       <c r="E70" s="22" t="n">
-        <v>0.72135365</v>
+        <v>0.7252493</v>
       </c>
       <c r="F70" s="23" t="n">
-        <v>0.83967936</v>
+        <v>0.86221296</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>0.95468575</v>
+        <v>0.9502389</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>144</v>
@@ -6836,13 +6836,13 @@
         <v>48.0</v>
       </c>
       <c r="E71" s="22" t="n">
-        <v>0.7921701</v>
+        <v>0.78214186</v>
       </c>
       <c r="F71" s="23" t="n">
-        <v>0.8249027</v>
+        <v>0.8397566</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>0.8696868</v>
+        <v>0.8874685</v>
       </c>
       <c r="H71" s="25" t="s">
         <v>144</v>
@@ -6859,16 +6859,16 @@
         <v>481</v>
       </c>
       <c r="D72" s="21" t="n">
-        <v>44.0</v>
+        <v>20.0</v>
       </c>
       <c r="E72" s="22" t="n">
-        <v>0.79661447</v>
+        <v>0.79475015</v>
       </c>
       <c r="F72" s="23" t="n">
-        <v>0.80040324</v>
+        <v>0.7494647</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>0.8717771</v>
+        <v>0.87705576</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>144</v>
@@ -6885,16 +6885,16 @@
         <v>482</v>
       </c>
       <c r="D73" s="21" t="n">
-        <v>20.0</v>
+        <v>44.0</v>
       </c>
       <c r="E73" s="22" t="n">
-        <v>0.8056361</v>
+        <v>0.8036116</v>
       </c>
       <c r="F73" s="23" t="n">
-        <v>0.72040814</v>
+        <v>0.80912864</v>
       </c>
       <c r="G73" s="24" t="n">
-        <v>0.8654</v>
+        <v>0.87117964</v>
       </c>
       <c r="H73" s="25" t="s">
         <v>144</v>
@@ -6911,16 +6911,16 @@
         <v>483</v>
       </c>
       <c r="D74" s="21" t="n">
-        <v>26.0</v>
+        <v>64.0</v>
       </c>
       <c r="E74" s="22" t="n">
-        <v>0.83155894</v>
+        <v>0.8308596</v>
       </c>
       <c r="F74" s="23" t="n">
-        <v>0.7145709</v>
+        <v>0.7633745</v>
       </c>
       <c r="G74" s="24" t="n">
-        <v>0.82742995</v>
+        <v>0.83222157</v>
       </c>
       <c r="H74" s="25" t="s">
         <v>144</v>
@@ -6937,16 +6937,16 @@
         <v>484</v>
       </c>
       <c r="D75" s="21" t="n">
-        <v>133.0</v>
+        <v>17.0</v>
       </c>
       <c r="E75" s="22" t="n">
-        <v>0.8454959</v>
+        <v>0.8446325</v>
       </c>
       <c r="F75" s="23" t="n">
-        <v>0.8446602</v>
+        <v>0.6527197</v>
       </c>
       <c r="G75" s="24" t="n">
-        <v>0.80937976</v>
+        <v>0.81521267</v>
       </c>
       <c r="H75" s="25" t="s">
         <v>144</v>
@@ -6963,16 +6963,16 @@
         <v>485</v>
       </c>
       <c r="D76" s="21" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="E76" s="22" t="n">
-        <v>0.8591925</v>
+        <v>0.8479957</v>
       </c>
       <c r="F76" s="23" t="n">
-        <v>0.70893973</v>
+        <v>0.6883629</v>
       </c>
       <c r="G76" s="24" t="n">
-        <v>0.79075927</v>
+        <v>0.81730527</v>
       </c>
       <c r="H76" s="25" t="s">
         <v>144</v>
@@ -6989,16 +6989,16 @@
         <v>486</v>
       </c>
       <c r="D77" s="21" t="n">
-        <v>17.0</v>
+        <v>133.0</v>
       </c>
       <c r="E77" s="22" t="n">
-        <v>0.8600373</v>
+        <v>0.8582816</v>
       </c>
       <c r="F77" s="23" t="n">
-        <v>0.6388262</v>
+        <v>0.8153527</v>
       </c>
       <c r="G77" s="24" t="n">
-        <v>0.79805166</v>
+        <v>0.80518967</v>
       </c>
       <c r="H77" s="25" t="s">
         <v>144</v>
@@ -7015,16 +7015,16 @@
         <v>487</v>
       </c>
       <c r="D78" s="21" t="n">
-        <v>22.0</v>
+        <v>47.0</v>
       </c>
       <c r="E78" s="22" t="n">
-        <v>0.9090897</v>
+        <v>0.8964694</v>
       </c>
       <c r="F78" s="23" t="n">
-        <v>0.5732484</v>
+        <v>0.6484848</v>
       </c>
       <c r="G78" s="24" t="n">
-        <v>0.7019796</v>
+        <v>0.73301595</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>144</v>
@@ -7041,16 +7041,16 @@
         <v>488</v>
       </c>
       <c r="D79" s="21" t="n">
-        <v>47.0</v>
+        <v>22.0</v>
       </c>
       <c r="E79" s="22" t="n">
-        <v>0.9126162</v>
+        <v>0.90442765</v>
       </c>
       <c r="F79" s="23" t="n">
-        <v>0.6041237</v>
+        <v>0.5848214</v>
       </c>
       <c r="G79" s="24" t="n">
-        <v>0.702864</v>
+        <v>0.7241454</v>
       </c>
       <c r="H79" s="25" t="s">
         <v>144</v>
@@ -7070,13 +7070,13 @@
         <v>137.0</v>
       </c>
       <c r="E80" s="22" t="n">
-        <v>0.9337794</v>
+        <v>0.9271023</v>
       </c>
       <c r="F80" s="23" t="n">
-        <v>0.5833333</v>
+        <v>0.65360826</v>
       </c>
       <c r="G80" s="24" t="n">
-        <v>0.6651805</v>
+        <v>0.6830291</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>144</v>
@@ -7093,16 +7093,16 @@
         <v>490</v>
       </c>
       <c r="D81" s="21" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="E81" s="22" t="n">
-        <v>0.95907617</v>
+        <v>0.94975096</v>
       </c>
       <c r="F81" s="23" t="n">
-        <v>0.50427353</v>
+        <v>0.52754235</v>
       </c>
       <c r="G81" s="24" t="n">
-        <v>0.61927956</v>
+        <v>0.6413765</v>
       </c>
       <c r="H81" s="25" t="s">
         <v>144</v>
@@ -7119,16 +7119,16 @@
         <v>491</v>
       </c>
       <c r="D82" s="21" t="n">
-        <v>22.0</v>
+        <v>37.0</v>
       </c>
       <c r="E82" s="22" t="n">
-        <v>0.96829176</v>
+        <v>0.95543766</v>
       </c>
       <c r="F82" s="23" t="n">
-        <v>0.50840336</v>
+        <v>0.52880657</v>
       </c>
       <c r="G82" s="24" t="n">
-        <v>0.6072265</v>
+        <v>0.6359159</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>144</v>
@@ -7145,16 +7145,16 @@
         <v>492</v>
       </c>
       <c r="D83" s="21" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="E83" s="22" t="n">
-        <v>0.97011393</v>
+        <v>0.9621591</v>
       </c>
       <c r="F83" s="23" t="n">
-        <v>0.4871795</v>
+        <v>0.5041841</v>
       </c>
       <c r="G83" s="24" t="n">
-        <v>0.61021334</v>
+        <v>0.62915325</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>144</v>
@@ -7174,13 +7174,13 @@
         <v>82.0</v>
       </c>
       <c r="E84" s="22" t="n">
-        <v>0.9720247</v>
+        <v>0.97300875</v>
       </c>
       <c r="F84" s="23" t="n">
-        <v>0.5183044</v>
+        <v>0.5167653</v>
       </c>
       <c r="G84" s="24" t="n">
-        <v>0.6135149</v>
+        <v>0.6126638</v>
       </c>
       <c r="H84" s="25" t="s">
         <v>144</v>
@@ -7197,16 +7197,16 @@
         <v>494</v>
       </c>
       <c r="D85" s="21" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E85" s="22" t="n">
-        <v>0.9722546</v>
+        <v>0.9763404</v>
       </c>
       <c r="F85" s="23" t="n">
-        <v>0.48962656</v>
+        <v>0.46952596</v>
       </c>
       <c r="G85" s="24" t="n">
-        <v>0.62053406</v>
+        <v>0.6132173</v>
       </c>
       <c r="H85" s="25" t="s">
         <v>144</v>
@@ -7223,16 +7223,16 @@
         <v>495</v>
       </c>
       <c r="D86" s="21" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="E86" s="22" t="n">
-        <v>0.9765735</v>
+        <v>0.97946644</v>
       </c>
       <c r="F86" s="23" t="n">
-        <v>0.492569</v>
+        <v>0.47708333</v>
       </c>
       <c r="G86" s="24" t="n">
-        <v>0.6191106</v>
+        <v>0.61390764</v>
       </c>
       <c r="H86" s="25" t="s">
         <v>144</v>
@@ -7249,16 +7249,16 @@
         <v>496</v>
       </c>
       <c r="D87" s="21" t="n">
-        <v>21.0</v>
+        <v>59.0</v>
       </c>
       <c r="E87" s="22" t="n">
-        <v>0.9813115</v>
+        <v>0.98677206</v>
       </c>
       <c r="F87" s="23" t="n">
-        <v>0.48164147</v>
+        <v>0.45665962</v>
       </c>
       <c r="G87" s="24" t="n">
-        <v>0.61650187</v>
+        <v>0.6063907</v>
       </c>
       <c r="H87" s="25" t="s">
         <v>144</v>
@@ -7275,16 +7275,16 @@
         <v>497</v>
       </c>
       <c r="D88" s="21" t="n">
-        <v>59.0</v>
+        <v>29.0</v>
       </c>
       <c r="E88" s="22" t="n">
-        <v>0.9875647</v>
+        <v>0.99033946</v>
       </c>
       <c r="F88" s="23" t="n">
-        <v>0.44539616</v>
+        <v>0.45783132</v>
       </c>
       <c r="G88" s="24" t="n">
-        <v>0.6095547</v>
+        <v>0.60610634</v>
       </c>
       <c r="H88" s="25" t="s">
         <v>144</v>
@@ -7301,16 +7301,16 @@
         <v>498</v>
       </c>
       <c r="D89" s="21" t="n">
-        <v>88.0</v>
+        <v>39.0</v>
       </c>
       <c r="E89" s="22" t="n">
-        <v>0.9939054</v>
+        <v>0.9927728</v>
       </c>
       <c r="F89" s="23" t="n">
-        <v>0.47420636</v>
+        <v>0.45891783</v>
       </c>
       <c r="G89" s="24" t="n">
-        <v>0.60288495</v>
+        <v>0.60844445</v>
       </c>
       <c r="H89" s="25" t="s">
         <v>144</v>
@@ -7327,16 +7327,16 @@
         <v>499</v>
       </c>
       <c r="D90" s="21" t="n">
-        <v>21.0</v>
+        <v>88.0</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>1.0050288</v>
+        <v>0.9984103</v>
       </c>
       <c r="F90" s="23" t="n">
-        <v>0.44238684</v>
+        <v>0.4364754</v>
       </c>
       <c r="G90" s="24" t="n">
-        <v>0.5866871</v>
+        <v>0.6044106</v>
       </c>
       <c r="H90" s="25" t="s">
         <v>144</v>
@@ -7356,13 +7356,13 @@
         <v>105.0</v>
       </c>
       <c r="E91" s="22" t="n">
-        <v>1.0055451</v>
+        <v>0.99856025</v>
       </c>
       <c r="F91" s="23" t="n">
-        <v>0.4385965</v>
+        <v>0.456</v>
       </c>
       <c r="G91" s="24" t="n">
-        <v>0.59362125</v>
+        <v>0.612135</v>
       </c>
       <c r="H91" s="25" t="s">
         <v>144</v>
@@ -7379,16 +7379,16 @@
         <v>501</v>
       </c>
       <c r="D92" s="21" t="n">
-        <v>18.0</v>
+        <v>87.0</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>1.0226012</v>
+        <v>1.0220549</v>
       </c>
       <c r="F92" s="23" t="n">
-        <v>0.42474228</v>
+        <v>0.40120968</v>
       </c>
       <c r="G92" s="24" t="n">
-        <v>0.5655913</v>
+        <v>0.5681872</v>
       </c>
       <c r="H92" s="25" t="s">
         <v>144</v>
@@ -7405,16 +7405,16 @@
         <v>502</v>
       </c>
       <c r="D93" s="21" t="n">
-        <v>87.0</v>
+        <v>18.0</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>1.0285835</v>
+        <v>1.0233939</v>
       </c>
       <c r="F93" s="23" t="n">
-        <v>0.4231537</v>
+        <v>0.44258872</v>
       </c>
       <c r="G93" s="24" t="n">
-        <v>0.56071234</v>
+        <v>0.57296354</v>
       </c>
       <c r="H93" s="25" t="s">
         <v>144</v>
@@ -7434,13 +7434,13 @@
         <v>74.0</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>1.0465918</v>
+        <v>1.0288252</v>
       </c>
       <c r="F94" s="23" t="n">
-        <v>0.369863</v>
+        <v>0.38922155</v>
       </c>
       <c r="G94" s="24" t="n">
-        <v>0.5299936</v>
+        <v>0.5686984</v>
       </c>
       <c r="H94" s="25" t="s">
         <v>144</v>
@@ -7457,16 +7457,16 @@
         <v>504</v>
       </c>
       <c r="D95" s="21" t="n">
-        <v>18.0</v>
+        <v>70.0</v>
       </c>
       <c r="E95" s="22" t="n">
-        <v>1.0532242</v>
+        <v>1.066205</v>
       </c>
       <c r="F95" s="23" t="n">
-        <v>0.40089086</v>
+        <v>0.34698275</v>
       </c>
       <c r="G95" s="24" t="n">
-        <v>0.52278</v>
+        <v>0.49632066</v>
       </c>
       <c r="H95" s="25" t="s">
         <v>144</v>
@@ -7483,16 +7483,16 @@
         <v>505</v>
       </c>
       <c r="D96" s="21" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>1.0681591</v>
+        <v>1.0673978</v>
       </c>
       <c r="F96" s="23" t="n">
-        <v>0.38830897</v>
+        <v>0.37625754</v>
       </c>
       <c r="G96" s="24" t="n">
-        <v>0.49951386</v>
+        <v>0.5011261</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>144</v>
@@ -7509,16 +7509,16 @@
         <v>506</v>
       </c>
       <c r="D97" s="21" t="n">
-        <v>70.0</v>
+        <v>16.0</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>1.0699911</v>
+        <v>1.0809045</v>
       </c>
       <c r="F97" s="23" t="n">
-        <v>0.33534136</v>
+        <v>0.3736952</v>
       </c>
       <c r="G97" s="24" t="n">
-        <v>0.5026935</v>
+        <v>0.47970775</v>
       </c>
       <c r="H97" s="25" t="s">
         <v>144</v>
@@ -7535,16 +7535,16 @@
         <v>507</v>
       </c>
       <c r="D98" s="21" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="E98" s="22" t="n">
-        <v>1.0874364</v>
+        <v>1.083533</v>
       </c>
       <c r="F98" s="23" t="n">
-        <v>0.32515338</v>
+        <v>0.35021096</v>
       </c>
       <c r="G98" s="24" t="n">
-        <v>0.47517708</v>
+        <v>0.48175296</v>
       </c>
       <c r="H98" s="25" t="s">
         <v>144</v>
@@ -7564,13 +7564,13 @@
         <v>22.0</v>
       </c>
       <c r="E99" s="22" t="n">
-        <v>1.0880002</v>
+        <v>1.0875221</v>
       </c>
       <c r="F99" s="23" t="n">
-        <v>0.33974358</v>
+        <v>0.35546038</v>
       </c>
       <c r="G99" s="24" t="n">
-        <v>0.48102653</v>
+        <v>0.48117808</v>
       </c>
       <c r="H99" s="25" t="s">
         <v>144</v>
@@ -7587,16 +7587,16 @@
         <v>509</v>
       </c>
       <c r="D100" s="21" t="n">
-        <v>36.0</v>
+        <v>156.0</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>1.0883348</v>
+        <v>1.0921537</v>
       </c>
       <c r="F100" s="23" t="n">
-        <v>0.32539684</v>
+        <v>0.26434427</v>
       </c>
       <c r="G100" s="24" t="n">
-        <v>0.48746854</v>
+        <v>0.4789435</v>
       </c>
       <c r="H100" s="25" t="s">
         <v>144</v>
@@ -7613,16 +7613,16 @@
         <v>510</v>
       </c>
       <c r="D101" s="21" t="n">
-        <v>156.0</v>
+        <v>29.0</v>
       </c>
       <c r="E101" s="22" t="n">
-        <v>1.0891277</v>
+        <v>1.0934274</v>
       </c>
       <c r="F101" s="23" t="n">
-        <v>0.27868852</v>
+        <v>0.33195877</v>
       </c>
       <c r="G101" s="24" t="n">
-        <v>0.4932685</v>
+        <v>0.483396</v>
       </c>
       <c r="H101" s="25" t="s">
         <v>144</v>
@@ -7639,16 +7639,16 @@
         <v>511</v>
       </c>
       <c r="D102" s="21" t="n">
-        <v>151.0</v>
+        <v>88.0</v>
       </c>
       <c r="E102" s="22" t="n">
-        <v>1.0919147</v>
+        <v>1.0984576</v>
       </c>
       <c r="F102" s="23" t="n">
-        <v>0.27111983</v>
+        <v>0.30021143</v>
       </c>
       <c r="G102" s="24" t="n">
-        <v>0.4945412</v>
+        <v>0.48032066</v>
       </c>
       <c r="H102" s="25" t="s">
         <v>144</v>
@@ -7665,16 +7665,16 @@
         <v>512</v>
       </c>
       <c r="D103" s="21" t="n">
-        <v>16.0</v>
+        <v>151.0</v>
       </c>
       <c r="E103" s="22" t="n">
-        <v>1.0977919</v>
+        <v>1.1043495</v>
       </c>
       <c r="F103" s="23" t="n">
-        <v>0.3390558</v>
+        <v>0.2514735</v>
       </c>
       <c r="G103" s="24" t="n">
-        <v>0.4901119</v>
+        <v>0.47576448</v>
       </c>
       <c r="H103" s="25" t="s">
         <v>144</v>
@@ -7691,16 +7691,16 @@
         <v>513</v>
       </c>
       <c r="D104" s="21" t="n">
-        <v>88.0</v>
+        <v>16.0</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>1.1119267</v>
+        <v>1.1151768</v>
       </c>
       <c r="F104" s="23" t="n">
-        <v>0.25</v>
+        <v>0.32683983</v>
       </c>
       <c r="G104" s="24" t="n">
-        <v>0.46805012</v>
+        <v>0.46149936</v>
       </c>
       <c r="H104" s="25" t="s">
         <v>144</v>
@@ -7717,16 +7717,16 @@
         <v>514</v>
       </c>
       <c r="D105" s="21" t="n">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>1.1279094</v>
+        <v>1.1221985</v>
       </c>
       <c r="F105" s="23" t="n">
-        <v>0.2719486</v>
+        <v>0.28189301</v>
       </c>
       <c r="G105" s="24" t="n">
-        <v>0.4431525</v>
+        <v>0.45408127</v>
       </c>
       <c r="H105" s="25" t="s">
         <v>144</v>
@@ -7743,16 +7743,16 @@
         <v>515</v>
       </c>
       <c r="D106" s="21" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>1.1332244</v>
+        <v>1.1348482</v>
       </c>
       <c r="F106" s="23" t="n">
-        <v>0.25714287</v>
+        <v>0.25416666</v>
       </c>
       <c r="G106" s="24" t="n">
-        <v>0.43992177</v>
+        <v>0.43476588</v>
       </c>
       <c r="H106" s="25" t="s">
         <v>144</v>
@@ -7769,16 +7769,16 @@
         <v>516</v>
       </c>
       <c r="D107" s="21" t="n">
-        <v>76.0</v>
+        <v>44.0</v>
       </c>
       <c r="E107" s="22" t="n">
-        <v>1.1452304</v>
+        <v>1.1489099</v>
       </c>
       <c r="F107" s="23" t="n">
-        <v>0.22287968</v>
+        <v>0.24261603</v>
       </c>
       <c r="G107" s="24" t="n">
-        <v>0.4248971</v>
+        <v>0.4148669</v>
       </c>
       <c r="H107" s="25" t="s">
         <v>144</v>
@@ -7795,16 +7795,16 @@
         <v>517</v>
       </c>
       <c r="D108" s="21" t="n">
-        <v>44.0</v>
+        <v>76.0</v>
       </c>
       <c r="E108" s="22" t="n">
-        <v>1.1621605</v>
+        <v>1.154939</v>
       </c>
       <c r="F108" s="23" t="n">
-        <v>0.23480085</v>
+        <v>0.20696722</v>
       </c>
       <c r="G108" s="24" t="n">
-        <v>0.39967033</v>
+        <v>0.41023073</v>
       </c>
       <c r="H108" s="25" t="s">
         <v>144</v>
@@ -7824,13 +7824,13 @@
         <v>27.0</v>
       </c>
       <c r="E109" s="22" t="n">
-        <v>1.1754271</v>
+        <v>1.1581851</v>
       </c>
       <c r="F109" s="23" t="n">
-        <v>0.25376344</v>
+        <v>0.24248497</v>
       </c>
       <c r="G109" s="24" t="n">
-        <v>0.38026652</v>
+        <v>0.41149732</v>
       </c>
       <c r="H109" s="25" t="s">
         <v>144</v>
@@ -7847,16 +7847,16 @@
         <v>519</v>
       </c>
       <c r="D110" s="21" t="n">
-        <v>29.0</v>
+        <v>76.0</v>
       </c>
       <c r="E110" s="22" t="n">
-        <v>1.1759217</v>
+        <v>1.1597918</v>
       </c>
       <c r="F110" s="23" t="n">
-        <v>0.24524313</v>
+        <v>0.2164751</v>
       </c>
       <c r="G110" s="24" t="n">
-        <v>0.38591957</v>
+        <v>0.41551682</v>
       </c>
       <c r="H110" s="25" t="s">
         <v>144</v>
@@ -7873,16 +7873,16 @@
         <v>520</v>
       </c>
       <c r="D111" s="21" t="n">
-        <v>76.0</v>
+        <v>29.0</v>
       </c>
       <c r="E111" s="22" t="n">
-        <v>1.1800848</v>
+        <v>1.1918918</v>
       </c>
       <c r="F111" s="23" t="n">
-        <v>0.1740042</v>
+        <v>0.2043222</v>
       </c>
       <c r="G111" s="24" t="n">
-        <v>0.38458863</v>
+        <v>0.36122742</v>
       </c>
       <c r="H111" s="25" t="s">
         <v>144</v>
@@ -7902,13 +7902,13 @@
         <v>157.0</v>
       </c>
       <c r="E112" s="22" t="n">
-        <v>1.2078592</v>
+        <v>1.1924928</v>
       </c>
       <c r="F112" s="23" t="n">
-        <v>0.118</v>
+        <v>0.12727273</v>
       </c>
       <c r="G112" s="24" t="n">
-        <v>0.3409061</v>
+        <v>0.3667847</v>
       </c>
       <c r="H112" s="25" t="s">
         <v>144</v>
@@ -7928,13 +7928,13 @@
         <v>83.0</v>
       </c>
       <c r="E113" s="22" t="n">
-        <v>1.214577</v>
+        <v>1.2067502</v>
       </c>
       <c r="F113" s="23" t="n">
-        <v>0.16061185</v>
+        <v>0.15049505</v>
       </c>
       <c r="G113" s="24" t="n">
-        <v>0.33530656</v>
+        <v>0.3472865</v>
       </c>
       <c r="H113" s="25" t="s">
         <v>144</v>
@@ -7954,13 +7954,13 @@
         <v>53.0</v>
       </c>
       <c r="E114" s="22" t="n">
-        <v>1.2253417</v>
+        <v>1.2075582</v>
       </c>
       <c r="F114" s="23" t="n">
-        <v>0.16565657</v>
+        <v>0.18142548</v>
       </c>
       <c r="G114" s="24" t="n">
-        <v>0.3231338</v>
+        <v>0.35221124</v>
       </c>
       <c r="H114" s="25" t="s">
         <v>144</v>
@@ -7977,16 +7977,16 @@
         <v>524</v>
       </c>
       <c r="D115" s="21" t="n">
-        <v>137.0</v>
+        <v>34.0</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>1.2273083</v>
+        <v>1.2203485</v>
       </c>
       <c r="F115" s="23" t="n">
-        <v>0.0951417</v>
+        <v>0.16734694</v>
       </c>
       <c r="G115" s="24" t="n">
-        <v>0.3266179</v>
+        <v>0.33400142</v>
       </c>
       <c r="H115" s="25" t="s">
         <v>144</v>
@@ -8003,16 +8003,16 @@
         <v>525</v>
       </c>
       <c r="D116" s="21" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="E116" s="22" t="n">
-        <v>1.2277418</v>
+        <v>1.2334433</v>
       </c>
       <c r="F116" s="23" t="n">
-        <v>0.19067797</v>
+        <v>0.13800424</v>
       </c>
       <c r="G116" s="24" t="n">
-        <v>0.33238602</v>
+        <v>0.31826055</v>
       </c>
       <c r="H116" s="25" t="s">
         <v>144</v>
@@ -8029,16 +8029,16 @@
         <v>526</v>
       </c>
       <c r="D117" s="21" t="n">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="E117" s="22" t="n">
-        <v>1.2321281</v>
+        <v>1.2407753</v>
       </c>
       <c r="F117" s="23" t="n">
-        <v>0.17391305</v>
+        <v>0.19254659</v>
       </c>
       <c r="G117" s="24" t="n">
-        <v>0.3308811</v>
+        <v>0.31276488</v>
       </c>
       <c r="H117" s="25" t="s">
         <v>144</v>
@@ -8055,16 +8055,16 @@
         <v>527</v>
       </c>
       <c r="D118" s="21" t="n">
-        <v>169.0</v>
+        <v>137.0</v>
       </c>
       <c r="E118" s="22" t="n">
-        <v>1.2535651</v>
+        <v>1.2543792</v>
       </c>
       <c r="F118" s="23" t="n">
-        <v>0.068136275</v>
+        <v>0.072289154</v>
       </c>
       <c r="G118" s="24" t="n">
-        <v>0.30154908</v>
+        <v>0.2980548</v>
       </c>
       <c r="H118" s="25" t="s">
         <v>144</v>
@@ -8081,16 +8081,16 @@
         <v>528</v>
       </c>
       <c r="D119" s="21" t="n">
-        <v>26.0</v>
+        <v>169.0</v>
       </c>
       <c r="E119" s="22" t="n">
-        <v>1.261834</v>
+        <v>1.2578355</v>
       </c>
       <c r="F119" s="23" t="n">
-        <v>0.17872341</v>
+        <v>0.07400379</v>
       </c>
       <c r="G119" s="24" t="n">
-        <v>0.29504925</v>
+        <v>0.29830414</v>
       </c>
       <c r="H119" s="25" t="s">
         <v>144</v>
@@ -8110,13 +8110,13 @@
         <v>131.0</v>
       </c>
       <c r="E120" s="22" t="n">
-        <v>1.2792265</v>
+        <v>1.2759655</v>
       </c>
       <c r="F120" s="23" t="n">
-        <v>0.0708502</v>
+        <v>0.052529182</v>
       </c>
       <c r="G120" s="24" t="n">
-        <v>0.27501664</v>
+        <v>0.27557087</v>
       </c>
       <c r="H120" s="25" t="s">
         <v>144</v>
@@ -8136,13 +8136,13 @@
         <v>58.0</v>
       </c>
       <c r="E121" s="22" t="n">
-        <v>1.3221639</v>
+        <v>1.3096455</v>
       </c>
       <c r="F121" s="23" t="n">
-        <v>0.08713693</v>
+        <v>0.11181434</v>
       </c>
       <c r="G121" s="24" t="n">
-        <v>0.22101766</v>
+        <v>0.2347122</v>
       </c>
       <c r="H121" s="25" t="s">
         <v>144</v>
@@ -8162,13 +8162,13 @@
         <v>146.0</v>
       </c>
       <c r="E122" s="22" t="n">
-        <v>1.3254502</v>
+        <v>1.314965</v>
       </c>
       <c r="F122" s="23" t="n">
-        <v>0.044624746</v>
+        <v>0.06288032</v>
       </c>
       <c r="G122" s="24" t="n">
-        <v>0.22154526</v>
+        <v>0.23306435</v>
       </c>
       <c r="H122" s="25" t="s">
         <v>144</v>
@@ -8185,16 +8185,16 @@
         <v>532</v>
       </c>
       <c r="D123" s="21" t="n">
-        <v>53.0</v>
+        <v>96.0</v>
       </c>
       <c r="E123" s="22" t="n">
-        <v>1.3444076</v>
+        <v>1.3163135</v>
       </c>
       <c r="F123" s="23" t="n">
-        <v>0.08232932</v>
+        <v>0.07926829</v>
       </c>
       <c r="G123" s="24" t="n">
-        <v>0.20206954</v>
+        <v>0.23623839</v>
       </c>
       <c r="H123" s="25" t="s">
         <v>144</v>
@@ -8211,16 +8211,16 @@
         <v>533</v>
       </c>
       <c r="D124" s="21" t="n">
-        <v>96.0</v>
+        <v>64.0</v>
       </c>
       <c r="E124" s="22" t="n">
-        <v>1.344943</v>
+        <v>1.3228719</v>
       </c>
       <c r="F124" s="23" t="n">
-        <v>0.038617887</v>
+        <v>0.09146342</v>
       </c>
       <c r="G124" s="24" t="n">
-        <v>0.20602797</v>
+        <v>0.23217262</v>
       </c>
       <c r="H124" s="25" t="s">
         <v>144</v>
@@ -8240,13 +8240,13 @@
         <v>29.0</v>
       </c>
       <c r="E125" s="22" t="n">
-        <v>1.3460127</v>
+        <v>1.338801</v>
       </c>
       <c r="F125" s="23" t="n">
-        <v>0.10927835</v>
+        <v>0.11967546</v>
       </c>
       <c r="G125" s="24" t="n">
-        <v>0.21009049</v>
+        <v>0.21603918</v>
       </c>
       <c r="H125" s="25" t="s">
         <v>144</v>
@@ -8266,13 +8266,13 @@
         <v>138.0</v>
       </c>
       <c r="E126" s="22" t="n">
-        <v>1.3546898</v>
+        <v>1.3588506</v>
       </c>
       <c r="F126" s="23" t="n">
-        <v>0.032258064</v>
+        <v>0.037190083</v>
       </c>
       <c r="G126" s="24" t="n">
-        <v>0.20446591</v>
+        <v>0.1951232</v>
       </c>
       <c r="H126" s="25" t="s">
         <v>144</v>
@@ -8289,16 +8289,16 @@
         <v>536</v>
       </c>
       <c r="D127" s="21" t="n">
-        <v>64.0</v>
+        <v>20.0</v>
       </c>
       <c r="E127" s="22" t="n">
-        <v>1.3553152</v>
+        <v>1.3627248</v>
       </c>
       <c r="F127" s="23" t="n">
-        <v>0.082</v>
+        <v>0.114989735</v>
       </c>
       <c r="G127" s="24" t="n">
-        <v>0.20877029</v>
+        <v>0.19527549</v>
       </c>
       <c r="H127" s="25" t="s">
         <v>144</v>
@@ -8315,16 +8315,16 @@
         <v>537</v>
       </c>
       <c r="D128" s="21" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="E128" s="22" t="n">
-        <v>1.36284</v>
+        <v>1.3651721</v>
       </c>
       <c r="F128" s="23" t="n">
-        <v>0.08366534</v>
+        <v>0.11016949</v>
       </c>
       <c r="G128" s="24" t="n">
-        <v>0.20521323</v>
+        <v>0.19770943</v>
       </c>
       <c r="H128" s="25" t="s">
         <v>144</v>
@@ -8341,16 +8341,16 @@
         <v>538</v>
       </c>
       <c r="D129" s="21" t="n">
-        <v>20.0</v>
+        <v>43.0</v>
       </c>
       <c r="E129" s="22" t="n">
-        <v>1.3661304</v>
+        <v>1.3658203</v>
       </c>
       <c r="F129" s="23" t="n">
-        <v>0.08906882</v>
+        <v>0.078431375</v>
       </c>
       <c r="G129" s="24" t="n">
-        <v>0.2059225</v>
+        <v>0.20230244</v>
       </c>
       <c r="H129" s="25" t="s">
         <v>144</v>
@@ -8367,16 +8367,16 @@
         <v>539</v>
       </c>
       <c r="D130" s="21" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="E130" s="22" t="n">
-        <v>1.3666587</v>
+        <v>1.3742065</v>
       </c>
       <c r="F130" s="23" t="n">
-        <v>0.11111111</v>
+        <v>0.10195228</v>
       </c>
       <c r="G130" s="24" t="n">
-        <v>0.21093032</v>
+        <v>0.19778527</v>
       </c>
       <c r="H130" s="25" t="s">
         <v>144</v>
@@ -8393,16 +8393,16 @@
         <v>540</v>
       </c>
       <c r="D131" s="21" t="n">
-        <v>42.0</v>
+        <v>53.0</v>
       </c>
       <c r="E131" s="22" t="n">
-        <v>1.3896879</v>
+        <v>1.3809539</v>
       </c>
       <c r="F131" s="23" t="n">
-        <v>0.07675906</v>
+        <v>0.070063695</v>
       </c>
       <c r="G131" s="24" t="n">
-        <v>0.18730682</v>
+        <v>0.19426285</v>
       </c>
       <c r="H131" s="25" t="s">
         <v>144</v>
@@ -8419,16 +8419,16 @@
         <v>541</v>
       </c>
       <c r="D132" s="21" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="E132" s="22" t="n">
-        <v>1.3918754</v>
+        <v>1.3881254</v>
       </c>
       <c r="F132" s="23" t="n">
-        <v>0.088477366</v>
+        <v>0.058064517</v>
       </c>
       <c r="G132" s="24" t="n">
-        <v>0.19001052</v>
+        <v>0.19171847</v>
       </c>
       <c r="H132" s="25" t="s">
         <v>144</v>
@@ -8448,13 +8448,13 @@
         <v>42.0</v>
       </c>
       <c r="E133" s="22" t="n">
-        <v>1.3964407</v>
+        <v>1.3882716</v>
       </c>
       <c r="F133" s="23" t="n">
-        <v>0.06326531</v>
+        <v>0.074074075</v>
       </c>
       <c r="G133" s="24" t="n">
-        <v>0.19044484</v>
+        <v>0.19741783</v>
       </c>
       <c r="H133" s="25" t="s">
         <v>144</v>
@@ -8471,16 +8471,16 @@
         <v>543</v>
       </c>
       <c r="D134" s="21" t="n">
-        <v>80.0</v>
+        <v>42.0</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>1.4034977</v>
+        <v>1.3896506</v>
       </c>
       <c r="F134" s="23" t="n">
-        <v>0.036121674</v>
+        <v>0.058455113</v>
       </c>
       <c r="G134" s="24" t="n">
-        <v>0.18802877</v>
+        <v>0.20191841</v>
       </c>
       <c r="H134" s="25" t="s">
         <v>144</v>
@@ -8497,16 +8497,16 @@
         <v>544</v>
       </c>
       <c r="D135" s="21" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="E135" s="22" t="n">
-        <v>1.4190332</v>
+        <v>1.3947533</v>
       </c>
       <c r="F135" s="23" t="n">
-        <v>0.06092437</v>
+        <v>0.082039915</v>
       </c>
       <c r="G135" s="24" t="n">
-        <v>0.17610623</v>
+        <v>0.20198746</v>
       </c>
       <c r="H135" s="25" t="s">
         <v>144</v>
@@ -8523,16 +8523,16 @@
         <v>545</v>
       </c>
       <c r="D136" s="21" t="n">
-        <v>58.0</v>
+        <v>80.0</v>
       </c>
       <c r="E136" s="22" t="n">
-        <v>1.4299302</v>
+        <v>1.3993834</v>
       </c>
       <c r="F136" s="23" t="n">
-        <v>0.04509804</v>
+        <v>0.022494888</v>
       </c>
       <c r="G136" s="24" t="n">
-        <v>0.16830024</v>
+        <v>0.20198095</v>
       </c>
       <c r="H136" s="25" t="s">
         <v>144</v>
@@ -8549,16 +8549,16 @@
         <v>546</v>
       </c>
       <c r="D137" s="21" t="n">
-        <v>38.0</v>
+        <v>58.0</v>
       </c>
       <c r="E137" s="22" t="n">
-        <v>1.437509</v>
+        <v>1.4076881</v>
       </c>
       <c r="F137" s="23" t="n">
-        <v>0.061099797</v>
+        <v>0.05773196</v>
       </c>
       <c r="G137" s="24" t="n">
-        <v>0.16508096</v>
+        <v>0.19663686</v>
       </c>
       <c r="H137" s="25" t="s">
         <v>144</v>
@@ -8578,13 +8578,13 @@
         <v>32.0</v>
       </c>
       <c r="E138" s="22" t="n">
-        <v>1.4456538</v>
+        <v>1.4311055</v>
       </c>
       <c r="F138" s="23" t="n">
-        <v>0.07272727</v>
+        <v>0.062893085</v>
       </c>
       <c r="G138" s="24" t="n">
-        <v>0.1614848</v>
+        <v>0.17265202</v>
       </c>
       <c r="H138" s="25" t="s">
         <v>144</v>
@@ -8601,16 +8601,16 @@
         <v>548</v>
       </c>
       <c r="D139" s="21" t="n">
-        <v>23.0</v>
+        <v>187.0</v>
       </c>
       <c r="E139" s="22" t="n">
-        <v>1.4539145</v>
+        <v>1.4509567</v>
       </c>
       <c r="F139" s="23" t="n">
-        <v>0.05506608</v>
+        <v>0.003929273</v>
       </c>
       <c r="G139" s="24" t="n">
-        <v>0.1574477</v>
+        <v>0.15556334</v>
       </c>
       <c r="H139" s="25" t="s">
         <v>144</v>
@@ -8627,16 +8627,16 @@
         <v>549</v>
       </c>
       <c r="D140" s="21" t="n">
-        <v>187.0</v>
+        <v>64.0</v>
       </c>
       <c r="E140" s="22" t="n">
-        <v>1.4548795</v>
+        <v>1.4673595</v>
       </c>
       <c r="F140" s="23" t="n">
-        <v>0.0058139535</v>
+        <v>0.026639344</v>
       </c>
       <c r="G140" s="24" t="n">
-        <v>0.16220687</v>
+        <v>0.14301239</v>
       </c>
       <c r="H140" s="25" t="s">
         <v>144</v>
@@ -8653,16 +8653,16 @@
         <v>550</v>
       </c>
       <c r="D141" s="21" t="n">
-        <v>64.0</v>
+        <v>91.0</v>
       </c>
       <c r="E141" s="22" t="n">
-        <v>1.4576035</v>
+        <v>1.4856246</v>
       </c>
       <c r="F141" s="23" t="n">
-        <v>0.019565217</v>
+        <v>0.017578125</v>
       </c>
       <c r="G141" s="24" t="n">
-        <v>0.16530807</v>
+        <v>0.13125005</v>
       </c>
       <c r="H141" s="25" t="s">
         <v>144</v>
@@ -8682,13 +8682,13 @@
         <v>35.0</v>
       </c>
       <c r="E142" s="22" t="n">
-        <v>1.4847832</v>
+        <v>1.5051335</v>
       </c>
       <c r="F142" s="23" t="n">
-        <v>0.036144577</v>
+        <v>0.03529412</v>
       </c>
       <c r="G142" s="24" t="n">
-        <v>0.1418014</v>
+        <v>0.11848716</v>
       </c>
       <c r="H142" s="25" t="s">
         <v>144</v>
@@ -8705,16 +8705,16 @@
         <v>552</v>
       </c>
       <c r="D143" s="21" t="n">
-        <v>91.0</v>
+        <v>23.0</v>
       </c>
       <c r="E143" s="22" t="n">
-        <v>1.5074266</v>
+        <v>1.5138812</v>
       </c>
       <c r="F143" s="23" t="n">
-        <v>0.01004016</v>
+        <v>0.032467533</v>
       </c>
       <c r="G143" s="24" t="n">
-        <v>0.123668864</v>
+        <v>0.115754284</v>
       </c>
       <c r="H143" s="25" t="s">
         <v>144</v>
@@ -8734,13 +8734,13 @@
         <v>121.0</v>
       </c>
       <c r="E144" s="22" t="n">
-        <v>1.5139529</v>
+        <v>1.5230451</v>
       </c>
       <c r="F144" s="23" t="n">
-        <v>0.004210526</v>
+        <v>0.0075901328</v>
       </c>
       <c r="G144" s="24" t="n">
-        <v>0.12365438</v>
+        <v>0.11198692</v>
       </c>
       <c r="H144" s="25" t="s">
         <v>144</v>
@@ -8760,13 +8760,13 @@
         <v>108.0</v>
       </c>
       <c r="E145" s="22" t="n">
-        <v>1.533908</v>
+        <v>1.5557368</v>
       </c>
       <c r="F145" s="23" t="n">
-        <v>0.009784736</v>
+        <v>0.007920792</v>
       </c>
       <c r="G145" s="24" t="n">
-        <v>0.10988094</v>
+        <v>0.08872403</v>
       </c>
       <c r="H145" s="25" t="s">
         <v>144</v>
@@ -8786,13 +8786,13 @@
         <v>27.0</v>
       </c>
       <c r="E146" s="22" t="n">
-        <v>1.582</v>
+        <v>1.5718725</v>
       </c>
       <c r="F146" s="23" t="n">
-        <v>0.023504274</v>
+        <v>0.022403259</v>
       </c>
       <c r="G146" s="24" t="n">
-        <v>0.07514535</v>
+        <v>0.081269465</v>
       </c>
       <c r="H146" s="25" t="s">
         <v>144</v>
@@ -8809,16 +8809,16 @@
         <v>556</v>
       </c>
       <c r="D147" s="21" t="n">
-        <v>27.0</v>
+        <v>53.0</v>
       </c>
       <c r="E147" s="22" t="n">
-        <v>1.5851898</v>
+        <v>1.5868598</v>
       </c>
       <c r="F147" s="23" t="n">
-        <v>0.027659575</v>
+        <v>0.006451613</v>
       </c>
       <c r="G147" s="24" t="n">
-        <v>0.077363946</v>
+        <v>0.07554338</v>
       </c>
       <c r="H147" s="25" t="s">
         <v>144</v>
@@ -8835,16 +8835,16 @@
         <v>557</v>
       </c>
       <c r="D148" s="21" t="n">
-        <v>53.0</v>
+        <v>27.0</v>
       </c>
       <c r="E148" s="22" t="n">
-        <v>1.585958</v>
+        <v>1.6033188</v>
       </c>
       <c r="F148" s="23" t="n">
-        <v>0.01863354</v>
+        <v>0.0246085</v>
       </c>
       <c r="G148" s="24" t="n">
-        <v>0.08108844</v>
+        <v>0.06894859</v>
       </c>
       <c r="H148" s="25" t="s">
         <v>144</v>
@@ -8864,13 +8864,13 @@
         <v>62.0</v>
       </c>
       <c r="E149" s="22" t="n">
-        <v>1.6112959</v>
+        <v>1.616649</v>
       </c>
       <c r="F149" s="23" t="n">
-        <v>0.01369863</v>
+        <v>0.006451613</v>
       </c>
       <c r="G149" s="24" t="n">
-        <v>0.06849695</v>
+        <v>0.06587061</v>
       </c>
       <c r="H149" s="25" t="s">
         <v>144</v>
@@ -8887,16 +8887,16 @@
         <v>559</v>
       </c>
       <c r="D150" s="21" t="n">
-        <v>92.0</v>
+        <v>148.0</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>1.6195979</v>
+        <v>1.6344157</v>
       </c>
       <c r="F150" s="23" t="n">
-        <v>0.006122449</v>
+        <v>0.0</v>
       </c>
       <c r="G150" s="24" t="n">
-        <v>0.06736079</v>
+        <v>0.057418678</v>
       </c>
       <c r="H150" s="25" t="s">
         <v>144</v>
@@ -8913,16 +8913,16 @@
         <v>560</v>
       </c>
       <c r="D151" s="21" t="n">
-        <v>148.0</v>
+        <v>92.0</v>
       </c>
       <c r="E151" s="22" t="n">
-        <v>1.629748</v>
+        <v>1.6447214</v>
       </c>
       <c r="F151" s="23" t="n">
-        <v>0.0020408162</v>
+        <v>0.0</v>
       </c>
       <c r="G151" s="24" t="n">
-        <v>0.06416284</v>
+        <v>0.05548102</v>
       </c>
       <c r="H151" s="25" t="s">
         <v>144</v>
@@ -8942,13 +8942,13 @@
         <v>86.0</v>
       </c>
       <c r="E152" s="22" t="n">
-        <v>1.7141906</v>
+        <v>1.7069798</v>
       </c>
       <c r="F152" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G152" s="24" t="n">
-        <v>0.028503472</v>
+        <v>0.03105128</v>
       </c>
       <c r="H152" s="25" t="s">
         <v>144</v>
@@ -8968,13 +8968,13 @@
         <v>105.0</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>1.7368891</v>
+        <v>1.7211022</v>
       </c>
       <c r="F153" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G153" s="24" t="n">
-        <v>0.023661492</v>
+        <v>0.028988458</v>
       </c>
       <c r="H153" s="25" t="s">
         <v>144</v>
@@ -8991,16 +8991,16 @@
         <v>563</v>
       </c>
       <c r="D154" s="21" t="n">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>1.7487702</v>
+        <v>1.7397133</v>
       </c>
       <c r="F154" s="23" t="n">
-        <v>0.0020491802</v>
+        <v>0.0021598272</v>
       </c>
       <c r="G154" s="24" t="n">
-        <v>0.021883693</v>
+        <v>0.024473049</v>
       </c>
       <c r="H154" s="25" t="s">
         <v>144</v>
@@ -9017,16 +9017,16 @@
         <v>564</v>
       </c>
       <c r="D155" s="21" t="n">
-        <v>54.0</v>
+        <v>19.0</v>
       </c>
       <c r="E155" s="22" t="n">
-        <v>1.7492349</v>
+        <v>1.744727</v>
       </c>
       <c r="F155" s="23" t="n">
-        <v>0.0</v>
+        <v>0.006423983</v>
       </c>
       <c r="G155" s="24" t="n">
-        <v>0.023636717</v>
+        <v>0.02521203</v>
       </c>
       <c r="H155" s="25" t="s">
         <v>144</v>
@@ -9043,16 +9043,16 @@
         <v>565</v>
       </c>
       <c r="D156" s="21" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="E156" s="22" t="n">
-        <v>1.7549794</v>
+        <v>1.7459757</v>
       </c>
       <c r="F156" s="23" t="n">
-        <v>0.006185567</v>
+        <v>0.0043290043</v>
       </c>
       <c r="G156" s="24" t="n">
-        <v>0.025405979</v>
+        <v>0.02760698</v>
       </c>
       <c r="H156" s="25" t="s">
         <v>144</v>
@@ -9072,13 +9072,13 @@
         <v>20.0</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>1.7613647</v>
+        <v>1.7743623</v>
       </c>
       <c r="F157" s="23" t="n">
-        <v>0.008583691</v>
+        <v>0.0</v>
       </c>
       <c r="G157" s="24" t="n">
-        <v>0.026169281</v>
+        <v>0.022668162</v>
       </c>
       <c r="H157" s="25" t="s">
         <v>144</v>
@@ -9095,16 +9095,16 @@
         <v>567</v>
       </c>
       <c r="D158" s="21" t="n">
-        <v>95.0</v>
+        <v>46.0</v>
       </c>
       <c r="E158" s="22" t="n">
-        <v>1.8067365</v>
+        <v>1.798665</v>
       </c>
       <c r="F158" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G158" s="24" t="n">
-        <v>0.016449498</v>
+        <v>0.017567668</v>
       </c>
       <c r="H158" s="25" t="s">
         <v>144</v>
@@ -9121,16 +9121,16 @@
         <v>568</v>
       </c>
       <c r="D159" s="21" t="n">
-        <v>23.0</v>
+        <v>95.0</v>
       </c>
       <c r="E159" s="22" t="n">
-        <v>1.8084016</v>
+        <v>1.8233339</v>
       </c>
       <c r="F159" s="23" t="n">
-        <v>0.002173913</v>
+        <v>0.0</v>
       </c>
       <c r="G159" s="24" t="n">
-        <v>0.018604444</v>
+        <v>0.013499567</v>
       </c>
       <c r="H159" s="25" t="s">
         <v>144</v>
@@ -9150,13 +9150,13 @@
         <v>100.0</v>
       </c>
       <c r="E160" s="22" t="n">
-        <v>1.8195679</v>
+        <v>1.8401774</v>
       </c>
       <c r="F160" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G160" s="24" t="n">
-        <v>0.019644435</v>
+        <v>0.011678444</v>
       </c>
       <c r="H160" s="25" t="s">
         <v>144</v>
@@ -9176,13 +9176,13 @@
         <v>71.0</v>
       </c>
       <c r="E161" s="22" t="n">
-        <v>1.9329565</v>
+        <v>1.9414513</v>
       </c>
       <c r="F161" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G161" s="24" t="n">
-        <v>0.003857798</v>
+        <v>0.0033054047</v>
       </c>
       <c r="H161" s="25" t="s">
         <v>144</v>
@@ -9202,13 +9202,13 @@
         <v>28.0</v>
       </c>
       <c r="E162" s="22" t="n">
-        <v>1.9665848</v>
+        <v>1.9437749</v>
       </c>
       <c r="F162" s="23" t="n">
-        <v>0.0020703934</v>
+        <v>0.0039138943</v>
       </c>
       <c r="G162" s="24" t="n">
-        <v>0.0025527498</v>
+        <v>0.0041317563</v>
       </c>
       <c r="H162" s="25" t="s">
         <v>144</v>
@@ -9228,13 +9228,13 @@
         <v>176.0</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>1.9853022</v>
+        <v>2.0025747</v>
       </c>
       <c r="F163" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G163" s="24" t="n">
-        <v>0.0021758052</v>
+        <v>0.0016587368</v>
       </c>
       <c r="H163" s="25" t="s">
         <v>144</v>
@@ -9254,13 +9254,13 @@
         <v>38.0</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>2.0083592</v>
+        <v>2.0287468</v>
       </c>
       <c r="F164" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="G164" s="24" t="n">
-        <v>0.0019591243</v>
+        <v>0.0018796716</v>
       </c>
       <c r="H164" s="25" t="s">
         <v>144</v>
@@ -9280,7 +9280,7 @@
         <v>63.0</v>
       </c>
       <c r="E165" s="22" t="n">
-        <v>2.1072571</v>
+        <v>2.1250942</v>
       </c>
       <c r="F165" s="23" t="n">
         <v>0.0</v>
@@ -9351,7 +9351,7 @@
         <v>176.0</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>-2.7178981</v>
+        <v>-2.7650924</v>
       </c>
       <c r="F2" s="32" t="n">
         <v>0.0</v>
@@ -9377,7 +9377,7 @@
         <v>114.0</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>-2.4319565</v>
+        <v>-2.4449444</v>
       </c>
       <c r="F3" s="32" t="n">
         <v>0.0</v>
@@ -9403,7 +9403,7 @@
         <v>55.0</v>
       </c>
       <c r="E4" s="31" t="n">
-        <v>-2.3479283</v>
+        <v>-2.3299053</v>
       </c>
       <c r="F4" s="32" t="n">
         <v>0.0</v>
@@ -9429,7 +9429,7 @@
         <v>81.0</v>
       </c>
       <c r="E5" s="31" t="n">
-        <v>-2.2257187</v>
+        <v>-2.2224805</v>
       </c>
       <c r="F5" s="32" t="n">
         <v>0.0</v>
@@ -9455,7 +9455,7 @@
         <v>193.0</v>
       </c>
       <c r="E6" s="31" t="n">
-        <v>-2.133747</v>
+        <v>-2.1594253</v>
       </c>
       <c r="F6" s="32" t="n">
         <v>0.0</v>
@@ -9478,10 +9478,10 @@
         <v>413</v>
       </c>
       <c r="D7" s="30" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="E7" s="31" t="n">
-        <v>-2.093037</v>
+        <v>-2.0922506</v>
       </c>
       <c r="F7" s="32" t="n">
         <v>0.0</v>
@@ -9495,19 +9495,19 @@
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>414</v>
+        <v>199</v>
       </c>
       <c r="D8" s="30" t="n">
-        <v>41.0</v>
+        <v>192.0</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>-2.0924633</v>
+        <v>-2.0838184</v>
       </c>
       <c r="F8" s="32" t="n">
         <v>0.0</v>
@@ -9521,19 +9521,19 @@
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
       <c r="D9" s="30" t="n">
-        <v>192.0</v>
+        <v>49.0</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>-2.0816936</v>
+        <v>-2.0583472</v>
       </c>
       <c r="F9" s="32" t="n">
         <v>0.0</v>
@@ -9559,13 +9559,13 @@
         <v>51.0</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>-2.018296</v>
+        <v>-2.0088727</v>
       </c>
       <c r="F10" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" s="33" t="n">
-        <v>0.0</v>
+        <v>1.4999999E-4</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>143</v>
@@ -9573,25 +9573,25 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="D11" s="30" t="n">
-        <v>110.0</v>
+        <v>187.0</v>
       </c>
       <c r="E11" s="31" t="n">
-        <v>-2.000151</v>
+        <v>-2.0008597</v>
       </c>
       <c r="F11" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G11" s="33" t="n">
-        <v>0.0011785715</v>
+        <v>2.117647E-4</v>
       </c>
       <c r="H11" s="34" t="s">
         <v>143</v>
@@ -9599,25 +9599,25 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="D12" s="30" t="n">
-        <v>187.0</v>
+        <v>110.0</v>
       </c>
       <c r="E12" s="31" t="n">
-        <v>-1.9744904</v>
+        <v>-1.9836346</v>
       </c>
       <c r="F12" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" s="33" t="n">
-        <v>1.3846155E-4</v>
+        <v>0.0026100876</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>143</v>
@@ -9625,25 +9625,25 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
       <c r="D13" s="30" t="n">
-        <v>94.0</v>
+        <v>17.0</v>
       </c>
       <c r="E13" s="31" t="n">
-        <v>-1.9204137</v>
+        <v>-1.8950205</v>
       </c>
       <c r="F13" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G13" s="33" t="n">
-        <v>1.15384624E-4</v>
+        <v>0.0016119079</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>143</v>
@@ -9651,25 +9651,25 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>416</v>
+        <v>201</v>
       </c>
       <c r="D14" s="30" t="n">
-        <v>25.0</v>
+        <v>94.0</v>
       </c>
       <c r="E14" s="31" t="n">
-        <v>-1.8768672</v>
+        <v>-1.8897718</v>
       </c>
       <c r="F14" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" s="33" t="n">
-        <v>0.0016703915</v>
+        <v>3.128342E-4</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>143</v>
@@ -9689,13 +9689,13 @@
         <v>98.0</v>
       </c>
       <c r="E15" s="31" t="n">
-        <v>-1.8667591</v>
+        <v>-1.8794785</v>
       </c>
       <c r="F15" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" s="33" t="n">
-        <v>0.0019687111</v>
+        <v>0.0021126943</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>143</v>
@@ -9712,16 +9712,16 @@
         <v>418</v>
       </c>
       <c r="D16" s="30" t="n">
-        <v>17.0</v>
+        <v>155.0</v>
       </c>
       <c r="E16" s="31" t="n">
-        <v>-1.8589542</v>
+        <v>-1.8534539</v>
       </c>
       <c r="F16" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G16" s="33" t="n">
-        <v>0.0021979888</v>
+        <v>0.0028688237</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>143</v>
@@ -9738,16 +9738,16 @@
         <v>419</v>
       </c>
       <c r="D17" s="30" t="n">
-        <v>155.0</v>
+        <v>85.0</v>
       </c>
       <c r="E17" s="31" t="n">
-        <v>-1.8512529</v>
+        <v>-1.83907</v>
       </c>
       <c r="F17" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G17" s="33" t="n">
-        <v>0.0020401874</v>
+        <v>0.0029544362</v>
       </c>
       <c r="H17" s="34" t="s">
         <v>143</v>
@@ -9764,16 +9764,16 @@
         <v>420</v>
       </c>
       <c r="D18" s="30" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="E18" s="31" t="n">
-        <v>-1.8230538</v>
+        <v>-1.8215653</v>
       </c>
       <c r="F18" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G18" s="33" t="n">
-        <v>0.0030869097</v>
+        <v>0.0032408217</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>143</v>
@@ -9793,13 +9793,13 @@
         <v>163.0</v>
       </c>
       <c r="E19" s="31" t="n">
-        <v>-1.8072375</v>
+        <v>-1.8103689</v>
       </c>
       <c r="F19" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G19" s="33" t="n">
-        <v>0.013343095</v>
+        <v>0.020029003</v>
       </c>
       <c r="H19" s="34" t="s">
         <v>143</v>
@@ -9819,13 +9819,13 @@
         <v>97.0</v>
       </c>
       <c r="E20" s="31" t="n">
-        <v>-1.7771324</v>
+        <v>-1.7817502</v>
       </c>
       <c r="F20" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G20" s="33" t="n">
-        <v>0.013664252</v>
+        <v>0.019110922</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>143</v>
@@ -9845,13 +9845,13 @@
         <v>142.0</v>
       </c>
       <c r="E21" s="31" t="n">
-        <v>-1.7581326</v>
+        <v>-1.74883</v>
       </c>
       <c r="F21" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G21" s="33" t="n">
-        <v>9.600363E-4</v>
+        <v>0.0014426151</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>143</v>
@@ -9859,25 +9859,25 @@
     </row>
     <row r="22">
       <c r="A22" s="36" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="D22" s="30" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="E22" s="31" t="n">
-        <v>-1.7531475</v>
+        <v>-1.7465992</v>
       </c>
       <c r="F22" s="32" t="n">
-        <v>0.0019493178</v>
+        <v>0.00390625</v>
       </c>
       <c r="G22" s="33" t="n">
-        <v>0.009764619</v>
+        <v>0.022656137</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>143</v>
@@ -9885,25 +9885,25 @@
     </row>
     <row r="23">
       <c r="A23" s="36" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="D23" s="30" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="E23" s="31" t="n">
-        <v>-1.7120082</v>
+        <v>-1.7174828</v>
       </c>
       <c r="F23" s="32" t="n">
-        <v>0.0019569471</v>
+        <v>0.0038095238</v>
       </c>
       <c r="G23" s="33" t="n">
-        <v>0.030388668</v>
+        <v>0.014863433</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>143</v>
@@ -9923,13 +9923,13 @@
         <v>68.0</v>
       </c>
       <c r="E24" s="31" t="n">
-        <v>-1.707531</v>
+        <v>-1.7128243</v>
       </c>
       <c r="F24" s="32" t="n">
-        <v>0.0</v>
+        <v>0.0018691589</v>
       </c>
       <c r="G24" s="33" t="n">
-        <v>0.017490333</v>
+        <v>0.014437561</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>143</v>
@@ -9949,13 +9949,13 @@
         <v>87.0</v>
       </c>
       <c r="E25" s="31" t="n">
-        <v>-1.7034009</v>
+        <v>-1.6746395</v>
       </c>
       <c r="F25" s="32" t="n">
-        <v>0.0019011407</v>
+        <v>0.0</v>
       </c>
       <c r="G25" s="33" t="n">
-        <v>0.017064555</v>
+        <v>0.021841515</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>143</v>
@@ -9963,25 +9963,25 @@
     </row>
     <row r="26">
       <c r="A26" s="36" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="D26" s="30" t="n">
-        <v>33.0</v>
+        <v>21.0</v>
       </c>
       <c r="E26" s="31" t="n">
-        <v>-1.6616365</v>
+        <v>-1.6728154</v>
       </c>
       <c r="F26" s="32" t="n">
-        <v>0.0</v>
+        <v>0.0038986355</v>
       </c>
       <c r="G26" s="33" t="n">
-        <v>0.0438385</v>
+        <v>0.02059384</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>143</v>
@@ -10001,7 +10001,7 @@
         <v>193.0</v>
       </c>
       <c r="E27" s="31" t="n">
-        <v>2.9737163</v>
+        <v>2.9458156</v>
       </c>
       <c r="F27" s="32" t="n">
         <v>0.0</v>
@@ -10027,7 +10027,7 @@
         <v>142.0</v>
       </c>
       <c r="E28" s="31" t="n">
-        <v>2.5684502</v>
+        <v>2.550866</v>
       </c>
       <c r="F28" s="32" t="n">
         <v>0.0</v>
@@ -10053,7 +10053,7 @@
         <v>193.0</v>
       </c>
       <c r="E29" s="31" t="n">
-        <v>2.3580327</v>
+        <v>2.340674</v>
       </c>
       <c r="F29" s="32" t="n">
         <v>0.0</v>
@@ -10079,7 +10079,7 @@
         <v>191.0</v>
       </c>
       <c r="E30" s="31" t="n">
-        <v>2.2756138</v>
+        <v>2.2607532</v>
       </c>
       <c r="F30" s="32" t="n">
         <v>0.0</v>
@@ -10105,7 +10105,7 @@
         <v>133.0</v>
       </c>
       <c r="E31" s="31" t="n">
-        <v>2.1881204</v>
+        <v>2.1975515</v>
       </c>
       <c r="F31" s="32" t="n">
         <v>0.0</v>
@@ -10131,7 +10131,7 @@
         <v>193.0</v>
       </c>
       <c r="E32" s="31" t="n">
-        <v>2.1533492</v>
+        <v>2.1474512</v>
       </c>
       <c r="F32" s="32" t="n">
         <v>0.0</v>
@@ -10157,7 +10157,7 @@
         <v>195.0</v>
       </c>
       <c r="E33" s="31" t="n">
-        <v>2.1453192</v>
+        <v>2.1468902</v>
       </c>
       <c r="F33" s="32" t="n">
         <v>0.0</v>
@@ -10171,19 +10171,19 @@
     </row>
     <row r="34">
       <c r="A34" s="36" t="s">
-        <v>187</v>
+        <v>409</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>238</v>
+        <v>574</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="E34" s="31" t="n">
-        <v>2.1397858</v>
+        <v>2.1250942</v>
       </c>
       <c r="F34" s="32" t="n">
         <v>0.0</v>
@@ -10197,19 +10197,19 @@
     </row>
     <row r="35">
       <c r="A35" s="36" t="s">
-        <v>409</v>
+        <v>187</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>574</v>
+        <v>238</v>
       </c>
       <c r="D35" s="30" t="n">
-        <v>63.0</v>
+        <v>69.0</v>
       </c>
       <c r="E35" s="31" t="n">
-        <v>2.1072571</v>
+        <v>2.114655</v>
       </c>
       <c r="F35" s="32" t="n">
         <v>0.0</v>
@@ -10223,25 +10223,25 @@
     </row>
     <row r="36">
       <c r="A36" s="36" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>237</v>
+        <v>573</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>192.0</v>
+        <v>38.0</v>
       </c>
       <c r="E36" s="31" t="n">
-        <v>2.0162423</v>
+        <v>2.0287468</v>
       </c>
       <c r="F36" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G36" s="33" t="n">
-        <v>0.0</v>
+        <v>0.0018796716</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>144</v>
@@ -10249,25 +10249,25 @@
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>573</v>
+        <v>237</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>38.0</v>
+        <v>192.0</v>
       </c>
       <c r="E37" s="31" t="n">
-        <v>2.0083592</v>
+        <v>2.0188746</v>
       </c>
       <c r="F37" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G37" s="33" t="n">
-        <v>0.0019591243</v>
+        <v>1.871345E-4</v>
       </c>
       <c r="H37" s="34" t="s">
         <v>144</v>
@@ -10275,25 +10275,25 @@
     </row>
     <row r="38">
       <c r="A38" s="36" t="s">
-        <v>185</v>
+        <v>407</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>236</v>
+        <v>572</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>190.0</v>
+        <v>176.0</v>
       </c>
       <c r="E38" s="31" t="n">
-        <v>1.98987</v>
+        <v>2.0025747</v>
       </c>
       <c r="F38" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G38" s="33" t="n">
-        <v>0.0</v>
+        <v>0.0016587368</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>144</v>
@@ -10301,25 +10301,25 @@
     </row>
     <row r="39">
       <c r="A39" s="36" t="s">
-        <v>407</v>
+        <v>185</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>572</v>
+        <v>236</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>176.0</v>
+        <v>190.0</v>
       </c>
       <c r="E39" s="31" t="n">
-        <v>1.9853022</v>
+        <v>1.9934082</v>
       </c>
       <c r="F39" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" s="33" t="n">
-        <v>0.0021758052</v>
+        <v>2.8693958E-4</v>
       </c>
       <c r="H39" s="34" t="s">
         <v>144</v>
@@ -10339,13 +10339,13 @@
         <v>28.0</v>
       </c>
       <c r="E40" s="31" t="n">
-        <v>1.9665848</v>
+        <v>1.9437749</v>
       </c>
       <c r="F40" s="32" t="n">
-        <v>0.0020703934</v>
+        <v>0.0039138943</v>
       </c>
       <c r="G40" s="33" t="n">
-        <v>0.0025527498</v>
+        <v>0.0041317563</v>
       </c>
       <c r="H40" s="34" t="s">
         <v>144</v>
@@ -10365,13 +10365,13 @@
         <v>53.0</v>
       </c>
       <c r="E41" s="31" t="n">
-        <v>1.9427531</v>
+        <v>1.9429032</v>
       </c>
       <c r="F41" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" s="33" t="n">
-        <v>0.0</v>
+        <v>3.993823E-4</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>144</v>
@@ -10391,13 +10391,13 @@
         <v>71.0</v>
       </c>
       <c r="E42" s="31" t="n">
-        <v>1.9329565</v>
+        <v>1.9414513</v>
       </c>
       <c r="F42" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G42" s="33" t="n">
-        <v>0.003857798</v>
+        <v>0.0033054047</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>144</v>
@@ -10405,25 +10405,25 @@
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>404</v>
+        <v>183</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>569</v>
+        <v>234</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>100.0</v>
+        <v>193.0</v>
       </c>
       <c r="E43" s="31" t="n">
-        <v>1.8195679</v>
+        <v>1.8438895</v>
       </c>
       <c r="F43" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G43" s="33" t="n">
-        <v>0.019644435</v>
+        <v>5.6061853E-4</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>144</v>
@@ -10431,25 +10431,25 @@
     </row>
     <row r="44">
       <c r="A44" s="36" t="s">
-        <v>183</v>
+        <v>404</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>234</v>
+        <v>569</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>193.0</v>
+        <v>100.0</v>
       </c>
       <c r="E44" s="31" t="n">
-        <v>1.8153169</v>
+        <v>1.8401774</v>
       </c>
       <c r="F44" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" s="33" t="n">
-        <v>3.3488733E-4</v>
+        <v>0.011678444</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>144</v>
@@ -10466,16 +10466,16 @@
         <v>568</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>23.0</v>
+        <v>95.0</v>
       </c>
       <c r="E45" s="31" t="n">
-        <v>1.8084016</v>
+        <v>1.8233339</v>
       </c>
       <c r="F45" s="32" t="n">
-        <v>0.002173913</v>
+        <v>0.0</v>
       </c>
       <c r="G45" s="33" t="n">
-        <v>0.018604444</v>
+        <v>0.013499567</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>144</v>
@@ -10492,16 +10492,16 @@
         <v>567</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>95.0</v>
+        <v>46.0</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>1.8067365</v>
+        <v>1.798665</v>
       </c>
       <c r="F46" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" s="33" t="n">
-        <v>0.016449498</v>
+        <v>0.017567668</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>144</v>
@@ -10518,16 +10518,16 @@
         <v>233</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>34.0</v>
+        <v>156.0</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>1.7647593</v>
+        <v>1.7758685</v>
       </c>
       <c r="F47" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G47" s="33" t="n">
-        <v>6.089295E-4</v>
+        <v>9.921181E-4</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>144</v>
@@ -10535,25 +10535,25 @@
     </row>
     <row r="48">
       <c r="A48" s="36" t="s">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>142</v>
+        <v>566</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>1.7640629</v>
+        <v>1.7743623</v>
       </c>
       <c r="F48" s="32" t="n">
-        <v>0.0020661156</v>
+        <v>0.0</v>
       </c>
       <c r="G48" s="33" t="n">
-        <v>0.10519648</v>
+        <v>0.022668162</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>144</v>
@@ -10561,25 +10561,25 @@
     </row>
     <row r="49">
       <c r="A49" s="36" t="s">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>566</v>
+        <v>142</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>1.7613647</v>
+        <v>1.7493397</v>
       </c>
       <c r="F49" s="32" t="n">
-        <v>0.008583691</v>
+        <v>0.0019880715</v>
       </c>
       <c r="G49" s="33" t="n">
-        <v>0.026169281</v>
+        <v>0.12319713</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>144</v>
@@ -10587,25 +10587,25 @@
     </row>
     <row r="50">
       <c r="A50" s="36" t="s">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>232</v>
+        <v>565</v>
       </c>
       <c r="D50" s="30" t="n">
-        <v>156.0</v>
+        <v>23.0</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>1.760387</v>
+        <v>1.7459757</v>
       </c>
       <c r="F50" s="32" t="n">
-        <v>0.0</v>
+        <v>0.0043290043</v>
       </c>
       <c r="G50" s="33" t="n">
-        <v>6.742781E-4</v>
+        <v>0.02760698</v>
       </c>
       <c r="H50" s="34" t="s">
         <v>144</v>
@@ -10613,25 +10613,25 @@
     </row>
     <row r="51">
       <c r="A51" s="36" t="s">
-        <v>400</v>
+        <v>181</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>565</v>
+        <v>232</v>
       </c>
       <c r="D51" s="30" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>1.7549794</v>
+        <v>1.7448771</v>
       </c>
       <c r="F51" s="32" t="n">
-        <v>0.006185567</v>
+        <v>0.008281574</v>
       </c>
       <c r="G51" s="33" t="n">
-        <v>0.025405979</v>
+        <v>0.0011967161</v>
       </c>
       <c r="H51" s="34" t="s">
         <v>144</v>
